--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.5175634498798</v>
+        <v>252.6844919358477</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.6711735745357</v>
+        <v>345.734069519487</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.3116791141854</v>
+        <v>312.7376951654644</v>
       </c>
       <c r="AD2" t="n">
-        <v>209517.5634498798</v>
+        <v>252684.4919358477</v>
       </c>
       <c r="AE2" t="n">
-        <v>286671.1735745356</v>
+        <v>345734.069519487</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747867405737396e-06</v>
+        <v>3.96150265384309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>259311.6791141854</v>
+        <v>312737.6951654644</v>
       </c>
     </row>
     <row r="3">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.1616970727267</v>
+        <v>213.3285360501435</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.8227409390562</v>
+        <v>291.8855144144591</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.602465312669</v>
+        <v>264.0283705827215</v>
       </c>
       <c r="AD3" t="n">
-        <v>170161.6970727267</v>
+        <v>213328.5360501435</v>
       </c>
       <c r="AE3" t="n">
-        <v>232822.7409390562</v>
+        <v>291885.5144144591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.122953774985064e-06</v>
+        <v>4.502251324645953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.733796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>210602.4653126691</v>
+        <v>264028.3705827215</v>
       </c>
     </row>
     <row r="4">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.7792999508189</v>
+        <v>191.8607980736641</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.566401872092</v>
+        <v>262.5124082252974</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.1383101847169</v>
+        <v>237.4585924228306</v>
       </c>
       <c r="AD4" t="n">
-        <v>148779.2999508189</v>
+        <v>191860.7980736641</v>
       </c>
       <c r="AE4" t="n">
-        <v>203566.401872092</v>
+        <v>262512.4082252974</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.407078285994569e-06</v>
+        <v>4.911863521375649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.917824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>184138.3101847169</v>
+        <v>237458.5924228306</v>
       </c>
     </row>
     <row r="5">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.5311461238763</v>
+        <v>175.9793659597892</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.6491580400953</v>
+        <v>240.7827321677685</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.1675541851037</v>
+        <v>217.8027661504335</v>
       </c>
       <c r="AD5" t="n">
-        <v>141531.1461238763</v>
+        <v>175979.3659597892</v>
       </c>
       <c r="AE5" t="n">
-        <v>193649.1580400953</v>
+        <v>240782.7321677685</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.593571102740364e-06</v>
+        <v>5.180723578785472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>175167.5541851037</v>
+        <v>217802.7661504335</v>
       </c>
     </row>
     <row r="6">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.3224085306955</v>
+        <v>169.7706283666084</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.1540893549386</v>
+        <v>232.2876634826118</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.4832429323518</v>
+        <v>210.1184548976816</v>
       </c>
       <c r="AD6" t="n">
-        <v>135322.4085306955</v>
+        <v>169770.6283666084</v>
       </c>
       <c r="AE6" t="n">
-        <v>185154.0893549386</v>
+        <v>232287.6634826118</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.760106929803422e-06</v>
+        <v>5.420812354354764e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.084490740740742</v>
       </c>
       <c r="AH6" t="n">
-        <v>167483.2429323518</v>
+        <v>210118.4548976816</v>
       </c>
     </row>
     <row r="7">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.8206877514983</v>
+        <v>156.3541589334318</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.6804393309687</v>
+        <v>213.930658111291</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.772692138733</v>
+        <v>193.513416354775</v>
       </c>
       <c r="AD7" t="n">
-        <v>121820.6877514983</v>
+        <v>156354.1589334318</v>
       </c>
       <c r="AE7" t="n">
-        <v>166680.4393309687</v>
+        <v>213930.658111291</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.891140322588766e-06</v>
+        <v>5.609718533807737e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>150772.692138733</v>
+        <v>193513.416354775</v>
       </c>
     </row>
     <row r="8">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.8701150286153</v>
+        <v>154.4035862105488</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.0115796783263</v>
+        <v>211.2617984586487</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.35854470557</v>
+        <v>191.099268921612</v>
       </c>
       <c r="AD8" t="n">
-        <v>119870.1150286153</v>
+        <v>154403.5862105488</v>
       </c>
       <c r="AE8" t="n">
-        <v>164011.5796783263</v>
+        <v>211261.7984586487</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.943238569339492e-06</v>
+        <v>5.684826722191445e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>148358.54470557</v>
+        <v>191099.268921612</v>
       </c>
     </row>
     <row r="9">
@@ -6354,28 +6354,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.975065960949</v>
+        <v>154.5085371428825</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.1551781740535</v>
+        <v>211.4053969543759</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.4884383624068</v>
+        <v>191.2291625784488</v>
       </c>
       <c r="AD9" t="n">
-        <v>119975.065960949</v>
+        <v>154508.5371428825</v>
       </c>
       <c r="AE9" t="n">
-        <v>164155.1781740535</v>
+        <v>211405.3969543759</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.940350057674885e-06</v>
+        <v>5.680662457714526e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.71412037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>148488.4383624068</v>
+        <v>191229.1625784488</v>
       </c>
     </row>
   </sheetData>
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.1750805620078</v>
+        <v>462.7229091221142</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.85475853464</v>
+        <v>633.1178981548878</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.9044096499528</v>
+        <v>572.6940145415354</v>
       </c>
       <c r="AD2" t="n">
-        <v>390175.0805620078</v>
+        <v>462722.9091221142</v>
       </c>
       <c r="AE2" t="n">
-        <v>533854.7585346401</v>
+        <v>633117.8981548878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.772421339870869e-06</v>
+        <v>2.484584153502562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>482904.4096499528</v>
+        <v>572694.0145415354</v>
       </c>
     </row>
     <row r="3">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.6111738502485</v>
+        <v>347.0860732883947</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.3635171558232</v>
+        <v>474.8984778300442</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.153384992196</v>
+        <v>429.5748336301438</v>
       </c>
       <c r="AD3" t="n">
-        <v>292611.1738502485</v>
+        <v>347086.0732883947</v>
       </c>
       <c r="AE3" t="n">
-        <v>400363.5171558232</v>
+        <v>474898.4778300442</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.178981018451766e-06</v>
+        <v>3.054500409943475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.04976851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>362153.3849921961</v>
+        <v>429574.8336301438</v>
       </c>
     </row>
     <row r="4">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.3438090619458</v>
+        <v>297.818618991544</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.9537351295756</v>
+        <v>407.4885733344094</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.1770979524102</v>
+        <v>368.5984358091772</v>
       </c>
       <c r="AD4" t="n">
-        <v>243343.8090619458</v>
+        <v>297818.618991544</v>
       </c>
       <c r="AE4" t="n">
-        <v>332953.7351295757</v>
+        <v>407488.5733344094</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.463287798759848e-06</v>
+        <v>3.453042283253497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.54513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>301177.0979524102</v>
+        <v>368598.4358091772</v>
       </c>
     </row>
     <row r="5">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.2835538455874</v>
+        <v>270.6730229206136</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.9287001283677</v>
+        <v>370.3467712109847</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.6856803267428</v>
+        <v>335.0013951515655</v>
       </c>
       <c r="AD5" t="n">
-        <v>216283.5538455874</v>
+        <v>270673.0229206136</v>
       </c>
       <c r="AE5" t="n">
-        <v>295928.7001283677</v>
+        <v>370346.7712109847</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.682045798402362e-06</v>
+        <v>3.759697730881604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>267685.6803267428</v>
+        <v>335001.3951515655</v>
       </c>
     </row>
     <row r="6">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.992690190879</v>
+        <v>249.2968184113302</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.7976011893974</v>
+        <v>341.0989051496364</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.3348125847444</v>
+        <v>308.544904377577</v>
       </c>
       <c r="AD6" t="n">
-        <v>194992.690190879</v>
+        <v>249296.8184113302</v>
       </c>
       <c r="AE6" t="n">
-        <v>266797.6011893974</v>
+        <v>341098.9051496364</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.858005456245992e-06</v>
+        <v>4.006358368338082e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.947916666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>241334.8125847444</v>
+        <v>308544.904377577</v>
       </c>
     </row>
     <row r="7">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>186.0494795108379</v>
+        <v>231.2745622515744</v>
       </c>
       <c r="AB7" t="n">
-        <v>254.5611057903618</v>
+        <v>316.4400591860435</v>
       </c>
       <c r="AC7" t="n">
-        <v>230.2661511325597</v>
+        <v>286.2394640638338</v>
       </c>
       <c r="AD7" t="n">
-        <v>186049.4795108379</v>
+        <v>231274.5622515744</v>
       </c>
       <c r="AE7" t="n">
-        <v>254561.1057903618</v>
+        <v>316440.0591860435</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.009101783492337e-06</v>
+        <v>4.21816553398418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.450231481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>230266.1511325597</v>
+        <v>286239.4640638338</v>
       </c>
     </row>
     <row r="8">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.7965515338835</v>
+        <v>216.1131809954975</v>
       </c>
       <c r="AB8" t="n">
-        <v>246.0055738725839</v>
+        <v>295.6955884785552</v>
       </c>
       <c r="AC8" t="n">
-        <v>222.5271471732473</v>
+        <v>267.474816525614</v>
       </c>
       <c r="AD8" t="n">
-        <v>179796.5515338835</v>
+        <v>216113.1809954974</v>
       </c>
       <c r="AE8" t="n">
-        <v>246005.5738725839</v>
+        <v>295695.5884785552</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.122804840808774e-06</v>
+        <v>4.37755473115656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>222527.1471732473</v>
+        <v>267474.816525614</v>
       </c>
     </row>
     <row r="9">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.3041394921696</v>
+        <v>210.6144735789266</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.1764163570253</v>
+        <v>288.1720144053563</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.59045662057</v>
+        <v>260.6692818025564</v>
       </c>
       <c r="AD9" t="n">
-        <v>165304.1394921695</v>
+        <v>210614.4735789266</v>
       </c>
       <c r="AE9" t="n">
-        <v>226176.4163570253</v>
+        <v>288172.0144053563</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.228940797508646e-06</v>
+        <v>4.526336349951867e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.807870370370372</v>
       </c>
       <c r="AH9" t="n">
-        <v>204590.45662057</v>
+        <v>260669.2818025564</v>
       </c>
     </row>
     <row r="10">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>161.6809012726912</v>
+        <v>206.9912353594483</v>
       </c>
       <c r="AB10" t="n">
-        <v>221.2189419791487</v>
+        <v>283.2145400274797</v>
       </c>
       <c r="AC10" t="n">
-        <v>200.1061166394574</v>
+        <v>256.1849418214437</v>
       </c>
       <c r="AD10" t="n">
-        <v>161680.9012726912</v>
+        <v>206991.2353594483</v>
       </c>
       <c r="AE10" t="n">
-        <v>221218.9419791487</v>
+        <v>283214.5400274797</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.300680842315041e-06</v>
+        <v>4.626901703396845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.616898148148149</v>
       </c>
       <c r="AH10" t="n">
-        <v>200106.1166394574</v>
+        <v>256184.9418214437</v>
       </c>
     </row>
     <row r="11">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>157.8307974651774</v>
+        <v>194.0620860722198</v>
       </c>
       <c r="AB11" t="n">
-        <v>215.9510600951187</v>
+        <v>265.5243075788923</v>
       </c>
       <c r="AC11" t="n">
-        <v>195.3409940089188</v>
+        <v>240.1830403293468</v>
       </c>
       <c r="AD11" t="n">
-        <v>157830.7974651774</v>
+        <v>194062.0860722198</v>
       </c>
       <c r="AE11" t="n">
-        <v>215951.0600951187</v>
+        <v>265524.3075788923</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.380331946856936e-06</v>
+        <v>4.738556797872396e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.414351851851851</v>
       </c>
       <c r="AH11" t="n">
-        <v>195340.9940089188</v>
+        <v>240183.0403293468</v>
       </c>
     </row>
     <row r="12">
@@ -7711,28 +7711,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>154.6097901274152</v>
+        <v>190.8410787344575</v>
       </c>
       <c r="AB12" t="n">
-        <v>211.5439357547798</v>
+        <v>261.1171832385534</v>
       </c>
       <c r="AC12" t="n">
-        <v>191.3544794301826</v>
+        <v>236.1965257506105</v>
       </c>
       <c r="AD12" t="n">
-        <v>154609.7901274152</v>
+        <v>190841.0787344575</v>
       </c>
       <c r="AE12" t="n">
-        <v>211543.9357547798</v>
+        <v>261117.1832385534</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.44558590542056e-06</v>
+        <v>4.830029941279881e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>191354.4794301826</v>
+        <v>236196.5257506105</v>
       </c>
     </row>
     <row r="13">
@@ -7817,28 +7817,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>140.3441151980066</v>
+        <v>185.5691084301921</v>
       </c>
       <c r="AB13" t="n">
-        <v>192.0250099592127</v>
+        <v>253.9038408853461</v>
       </c>
       <c r="AC13" t="n">
-        <v>173.6984125175538</v>
+        <v>229.6716146676015</v>
       </c>
       <c r="AD13" t="n">
-        <v>140344.1151980066</v>
+        <v>185569.1084301921</v>
       </c>
       <c r="AE13" t="n">
-        <v>192025.0099592127</v>
+        <v>253903.8408853461</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.554375261037929e-06</v>
+        <v>4.982531100545072e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.997685185185186</v>
       </c>
       <c r="AH13" t="n">
-        <v>173698.4125175538</v>
+        <v>229671.6146676014</v>
       </c>
     </row>
     <row r="14">
@@ -7923,28 +7923,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>151.5842285558163</v>
+        <v>187.8155171628586</v>
       </c>
       <c r="AB14" t="n">
-        <v>207.4042289341642</v>
+        <v>256.9774764179378</v>
       </c>
       <c r="AC14" t="n">
-        <v>187.6098604184102</v>
+        <v>232.4519067388381</v>
       </c>
       <c r="AD14" t="n">
-        <v>151584.2285558163</v>
+        <v>187815.5171628586</v>
       </c>
       <c r="AE14" t="n">
-        <v>207404.2289341642</v>
+        <v>256977.4764179378</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.511232960120111e-06</v>
+        <v>4.922054127719942e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.096064814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>187609.8604184102</v>
+        <v>232451.9067388381</v>
       </c>
     </row>
     <row r="15">
@@ -8029,28 +8029,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>138.8618714814573</v>
+        <v>184.0868647136427</v>
       </c>
       <c r="AB15" t="n">
-        <v>189.9969387142533</v>
+        <v>251.8757696403867</v>
       </c>
       <c r="AC15" t="n">
-        <v>171.8638975457968</v>
+        <v>227.8370996958445</v>
       </c>
       <c r="AD15" t="n">
-        <v>138861.8714814573</v>
+        <v>184086.8647136427</v>
       </c>
       <c r="AE15" t="n">
-        <v>189996.9387142533</v>
+        <v>251875.7696403867</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.5724576832905e-06</v>
+        <v>5.007879080043532e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.957175925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>171863.8975457968</v>
+        <v>227837.0996958445</v>
       </c>
     </row>
     <row r="16">
@@ -8135,28 +8135,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>136.5792498307538</v>
+        <v>172.8957897838168</v>
       </c>
       <c r="AB16" t="n">
-        <v>186.8737550696023</v>
+        <v>236.5636472060253</v>
       </c>
       <c r="AC16" t="n">
-        <v>169.0387861647746</v>
+        <v>213.9863447359147</v>
       </c>
       <c r="AD16" t="n">
-        <v>136579.2498307538</v>
+        <v>172895.7897838168</v>
       </c>
       <c r="AE16" t="n">
-        <v>186873.7550696023</v>
+        <v>236563.6472060253</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.620317137839423e-06</v>
+        <v>5.074968569259564e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.85300925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>169038.7861647746</v>
+        <v>213986.3447359147</v>
       </c>
     </row>
     <row r="17">
@@ -8241,28 +8241,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>135.5107747660804</v>
+        <v>171.8273147191433</v>
       </c>
       <c r="AB17" t="n">
-        <v>185.4118203483239</v>
+        <v>235.1017124847468</v>
       </c>
       <c r="AC17" t="n">
-        <v>167.7163764414562</v>
+        <v>212.6639350125964</v>
       </c>
       <c r="AD17" t="n">
-        <v>135510.7747660804</v>
+        <v>171827.3147191434</v>
       </c>
       <c r="AE17" t="n">
-        <v>185411.8203483239</v>
+        <v>235101.7124847468</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.647637319286242e-06</v>
+        <v>5.113266060023542e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>167716.3764414562</v>
+        <v>212663.9350125964</v>
       </c>
     </row>
     <row r="18">
@@ -8347,28 +8347,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>135.5270348388964</v>
+        <v>171.8435747919594</v>
       </c>
       <c r="AB18" t="n">
-        <v>185.4340680972945</v>
+        <v>235.1239602337174</v>
       </c>
       <c r="AC18" t="n">
-        <v>167.73650089649</v>
+        <v>212.6840594676302</v>
       </c>
       <c r="AD18" t="n">
-        <v>135527.0348388964</v>
+        <v>171843.5747919594</v>
       </c>
       <c r="AE18" t="n">
-        <v>185434.0680972945</v>
+        <v>235123.9602337174</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.648030415422168e-06</v>
+        <v>5.113817103056116e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>167736.50089649</v>
+        <v>212684.0594676302</v>
       </c>
     </row>
   </sheetData>
@@ -8644,28 +8644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.3158561477633</v>
+        <v>193.0401630850187</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.0910770306256</v>
+        <v>264.1260674637442</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.3764198544333</v>
+        <v>238.9182462883456</v>
       </c>
       <c r="AD2" t="n">
-        <v>143315.8561477633</v>
+        <v>193040.1630850187</v>
       </c>
       <c r="AE2" t="n">
-        <v>196091.0770306256</v>
+        <v>264126.0674637442</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.056158378042753e-06</v>
+        <v>5.09443393320952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.98611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>177376.4198544333</v>
+        <v>238918.2462883455</v>
       </c>
     </row>
   </sheetData>
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.2130690636531</v>
+        <v>144.8979816208956</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.903115700929</v>
+        <v>198.2558109014139</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.1193797463631</v>
+        <v>179.3345545628173</v>
       </c>
       <c r="AD2" t="n">
-        <v>113213.0690636531</v>
+        <v>144897.9816208956</v>
       </c>
       <c r="AE2" t="n">
-        <v>154903.115700929</v>
+        <v>198255.8109014139</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.178585718267011e-06</v>
+        <v>6.359417274062887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.142361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>140119.3797463631</v>
+        <v>179334.5545628174</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.8546435624516</v>
+        <v>270.7834294645718</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.4465785074525</v>
+        <v>370.4978343152213</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.8678173307022</v>
+        <v>335.138041005152</v>
       </c>
       <c r="AD2" t="n">
-        <v>218854.6435624516</v>
+        <v>270783.4294645718</v>
       </c>
       <c r="AE2" t="n">
-        <v>299446.5785074525</v>
+        <v>370497.8343152213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.634421515347574e-06</v>
+        <v>3.785181647728831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>270867.8173307022</v>
+        <v>335138.041005152</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.4935559917239</v>
+        <v>228.4222523852897</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.4862696539243</v>
+        <v>312.5374029919644</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.4391590063319</v>
+        <v>282.7092718995039</v>
       </c>
       <c r="AD3" t="n">
-        <v>176493.5559917239</v>
+        <v>228422.2523852896</v>
       </c>
       <c r="AE3" t="n">
-        <v>241486.2696539243</v>
+        <v>312537.4029919644</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.018733936297424e-06</v>
+        <v>4.337368271736753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.988425925925927</v>
       </c>
       <c r="AH3" t="n">
-        <v>218439.1590063319</v>
+        <v>282709.2718995039</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.5669605836356</v>
+        <v>198.299968827326</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.7995315354458</v>
+        <v>271.3227657266178</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.4404183503825</v>
+        <v>245.4281017696422</v>
       </c>
       <c r="AD4" t="n">
-        <v>163566.9605836356</v>
+        <v>198299.968827326</v>
       </c>
       <c r="AE4" t="n">
-        <v>223799.5315354458</v>
+        <v>271322.7657266178</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.285209310357172e-06</v>
+        <v>4.720244622232072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>202440.4183503825</v>
+        <v>245428.1017696421</v>
       </c>
     </row>
     <row r="5">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.4256803302509</v>
+        <v>188.7564878946035</v>
       </c>
       <c r="AB5" t="n">
-        <v>198.9778315559775</v>
+        <v>258.2649540858092</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.9876665794719</v>
+        <v>233.6165093450746</v>
       </c>
       <c r="AD5" t="n">
-        <v>145425.6803302509</v>
+        <v>188756.4878946035</v>
       </c>
       <c r="AE5" t="n">
-        <v>198977.8315559775</v>
+        <v>258264.9540858092</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.511502303544621e-06</v>
+        <v>5.045386244342514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.587962962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>179987.666579472</v>
+        <v>233616.5093450746</v>
       </c>
     </row>
     <row r="6">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.6628870238878</v>
+        <v>174.3105544130065</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.0929235177178</v>
+        <v>238.4993905866921</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.8552830978433</v>
+        <v>215.7373434851642</v>
       </c>
       <c r="AD6" t="n">
-        <v>139662.8870238878</v>
+        <v>174310.5544130065</v>
       </c>
       <c r="AE6" t="n">
-        <v>191092.9235177178</v>
+        <v>238499.3905866921</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.662538023087972e-06</v>
+        <v>5.26239693547012e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.234953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>172855.2830978433</v>
+        <v>215737.3434851642</v>
       </c>
     </row>
     <row r="7">
@@ -9768,28 +9768,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.9106853437398</v>
+        <v>169.1561520535207</v>
       </c>
       <c r="AB7" t="n">
-        <v>172.2765544746298</v>
+        <v>231.4469098822639</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.8347219072818</v>
+        <v>209.3579416409456</v>
       </c>
       <c r="AD7" t="n">
-        <v>125910.6853437398</v>
+        <v>169156.1520535207</v>
       </c>
       <c r="AE7" t="n">
-        <v>172276.5544746298</v>
+        <v>231446.9098822639</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.794498838092721e-06</v>
+        <v>5.452000479271049e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>155834.7219072818</v>
+        <v>209357.9416409456</v>
       </c>
     </row>
     <row r="8">
@@ -9874,28 +9874,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.2020356971714</v>
+        <v>156.9349544323107</v>
       </c>
       <c r="AB8" t="n">
-        <v>167.2022164141223</v>
+        <v>214.7253281357458</v>
       </c>
       <c r="AC8" t="n">
-        <v>151.2446715493894</v>
+        <v>194.2322441874225</v>
       </c>
       <c r="AD8" t="n">
-        <v>122202.0356971714</v>
+        <v>156934.9544323107</v>
       </c>
       <c r="AE8" t="n">
-        <v>167202.2164141223</v>
+        <v>214725.3281357458</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.889821243560211e-06</v>
+        <v>5.588961332988229e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.75462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>151244.6715493894</v>
+        <v>194232.2441874225</v>
       </c>
     </row>
     <row r="9">
@@ -9980,28 +9980,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.7143204377158</v>
+        <v>156.4472391728551</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.5349028796568</v>
+        <v>214.0580146012803</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.6410454820727</v>
+        <v>193.6286181201058</v>
       </c>
       <c r="AD9" t="n">
-        <v>121714.3204377158</v>
+        <v>156447.2391728552</v>
       </c>
       <c r="AE9" t="n">
-        <v>166534.9028796568</v>
+        <v>214058.0146012803</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.896388013975139e-06</v>
+        <v>5.598396580428559e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.743055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>150641.0454820727</v>
+        <v>193628.6181201058</v>
       </c>
     </row>
     <row r="10">
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.2316337583387</v>
+        <v>155.964552493478</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.8744696703</v>
+        <v>213.3975813919235</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.0436430912928</v>
+        <v>193.0312157293258</v>
       </c>
       <c r="AD10" t="n">
-        <v>121231.6337583387</v>
+        <v>155964.552493478</v>
       </c>
       <c r="AE10" t="n">
-        <v>165874.4696703</v>
+        <v>213397.5813919235</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.918589952044659e-06</v>
+        <v>5.630296702726821e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.69675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>150043.6430912928</v>
+        <v>193031.2157293258</v>
       </c>
     </row>
   </sheetData>
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6121402008398</v>
+        <v>156.1917734669435</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.1315836054606</v>
+        <v>213.7084751521007</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.9899026438708</v>
+        <v>193.312438225374</v>
       </c>
       <c r="AD2" t="n">
-        <v>123612.1402008398</v>
+        <v>156191.7734669435</v>
       </c>
       <c r="AE2" t="n">
-        <v>169131.5836054606</v>
+        <v>213708.4751521007</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.917636302293181e-06</v>
+        <v>5.848681130979758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.362268518518517</v>
       </c>
       <c r="AH2" t="n">
-        <v>152989.9026438708</v>
+        <v>193312.438225374</v>
       </c>
     </row>
     <row r="3">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.1297482599566</v>
+        <v>141.7946328720809</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.3161360339143</v>
+        <v>194.0096722332036</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.0656135773913</v>
+        <v>175.4936614096067</v>
       </c>
       <c r="AD3" t="n">
-        <v>109129.7482599566</v>
+        <v>141794.6328720809</v>
       </c>
       <c r="AE3" t="n">
-        <v>149316.1360339143</v>
+        <v>194009.6722332036</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.1460179261916e-06</v>
+        <v>6.18963449961567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.899305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>135065.6135773913</v>
+        <v>175493.6614096067</v>
       </c>
     </row>
     <row r="4">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.9555616265854</v>
+        <v>141.6204462387097</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.077806197564</v>
+        <v>193.7713423968533</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.8500296061242</v>
+        <v>175.2780774383395</v>
       </c>
       <c r="AD4" t="n">
-        <v>108955.5616265854</v>
+        <v>141620.4462387097</v>
       </c>
       <c r="AE4" t="n">
-        <v>149077.806197564</v>
+        <v>193771.3423968533</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.157507757579799e-06</v>
+        <v>6.206787791767613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.876157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>134850.0296061242</v>
+        <v>175278.0774383395</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.31921475696</v>
+        <v>380.9273792940778</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.5383928831058</v>
+        <v>521.2016456800719</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.971219948315</v>
+        <v>471.4588921274691</v>
       </c>
       <c r="AD2" t="n">
-        <v>318319.21475696</v>
+        <v>380927.3792940777</v>
       </c>
       <c r="AE2" t="n">
-        <v>435538.3928831058</v>
+        <v>521201.6456800719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.035627802713373e-06</v>
+        <v>2.87442538938474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.22453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>393971.219948315</v>
+        <v>471458.8921274691</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.4949650893827</v>
+        <v>306.0176992633808</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.160553474848</v>
+        <v>418.7069166802293</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.3641778450813</v>
+        <v>378.7461162111159</v>
       </c>
       <c r="AD3" t="n">
-        <v>243494.9650893827</v>
+        <v>306017.6992633808</v>
       </c>
       <c r="AE3" t="n">
-        <v>333160.553474848</v>
+        <v>418706.9166802292</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.42472426023585e-06</v>
+        <v>3.42385232044329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.93865740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>301364.1778450813</v>
+        <v>378746.1162111158</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.0694804513889</v>
+        <v>263.7213532109383</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.4263307648596</v>
+        <v>360.8351900281842</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.9947651621349</v>
+        <v>326.3975859272634</v>
       </c>
       <c r="AD4" t="n">
-        <v>210069.4804513889</v>
+        <v>263721.3532109383</v>
       </c>
       <c r="AE4" t="n">
-        <v>287426.3307648596</v>
+        <v>360835.1900281842</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.718072373749838e-06</v>
+        <v>3.838076995646084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.64814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>259994.7651621349</v>
+        <v>326397.5859272634</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.1441238749084</v>
+        <v>231.9251352200066</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.0588465015833</v>
+        <v>317.3302018227056</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.620949572395</v>
+        <v>287.0446527365763</v>
       </c>
       <c r="AD5" t="n">
-        <v>187144.1238749084</v>
+        <v>231925.1352200066</v>
       </c>
       <c r="AE5" t="n">
-        <v>256058.8465015833</v>
+        <v>317330.2018227056</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.935131968657273e-06</v>
+        <v>4.14457782540477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>231620.949572395</v>
+        <v>287044.6527365763</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.2120264957566</v>
+        <v>222.8224456402626</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.8375568111087</v>
+        <v>304.8755003573842</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.5660426172876</v>
+        <v>275.7786104988177</v>
       </c>
       <c r="AD6" t="n">
-        <v>178212.0264957566</v>
+        <v>222822.4456402626</v>
       </c>
       <c r="AE6" t="n">
-        <v>243837.5568111087</v>
+        <v>304875.5003573842</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.095913148199217e-06</v>
+        <v>4.37161024458993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>220566.0426172876</v>
+        <v>275778.6104988178</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.7492975506557</v>
+        <v>206.4449680411822</v>
       </c>
       <c r="AB7" t="n">
-        <v>221.3125247840904</v>
+        <v>282.4671129830151</v>
       </c>
       <c r="AC7" t="n">
-        <v>200.1907680328397</v>
+        <v>255.5088481650821</v>
       </c>
       <c r="AD7" t="n">
-        <v>161749.2975506557</v>
+        <v>206444.9680411822</v>
       </c>
       <c r="AE7" t="n">
-        <v>221312.5247840904</v>
+        <v>282467.1129830151</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.245738796216678e-06</v>
+        <v>4.583172813183444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.917824074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>200190.7680328397</v>
+        <v>255508.8481650821</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>156.9866003636623</v>
+        <v>201.6822708541888</v>
       </c>
       <c r="AB8" t="n">
-        <v>214.7959923774786</v>
+        <v>275.9505805764034</v>
       </c>
       <c r="AC8" t="n">
-        <v>194.2961643331023</v>
+        <v>249.6142444653447</v>
       </c>
       <c r="AD8" t="n">
-        <v>156986.6003636623</v>
+        <v>201682.2708541888</v>
       </c>
       <c r="AE8" t="n">
-        <v>214795.9923774786</v>
+        <v>275950.5805764034</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.346489666035433e-06</v>
+        <v>4.725438927756847e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.65162037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>194296.1643331023</v>
+        <v>249614.2444653447</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.0912425649315</v>
+        <v>187.8308002949894</v>
       </c>
       <c r="AB9" t="n">
-        <v>208.0979478693147</v>
+        <v>256.9983874735634</v>
       </c>
       <c r="AC9" t="n">
-        <v>188.2373717920309</v>
+        <v>232.4708220726636</v>
       </c>
       <c r="AD9" t="n">
-        <v>152091.2425649315</v>
+        <v>187830.8002949895</v>
       </c>
       <c r="AE9" t="n">
-        <v>208097.9478693147</v>
+        <v>256998.3874735634</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.458896420992105e-06</v>
+        <v>4.884163833142364e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>188237.3717920309</v>
+        <v>232470.8220726636</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>148.3942513788067</v>
+        <v>184.1338091088647</v>
       </c>
       <c r="AB10" t="n">
-        <v>203.0395614287212</v>
+        <v>251.9400010329699</v>
       </c>
       <c r="AC10" t="n">
-        <v>183.6617506538361</v>
+        <v>227.8952009344688</v>
       </c>
       <c r="AD10" t="n">
-        <v>148394.2513788067</v>
+        <v>184133.8091088647</v>
       </c>
       <c r="AE10" t="n">
-        <v>203039.5614287212</v>
+        <v>251940.0010329699</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.539787263344104e-06</v>
+        <v>4.998386428606709e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>183661.7506538361</v>
+        <v>227895.2009344688</v>
       </c>
     </row>
     <row r="11">
@@ -11846,28 +11846,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.2531860246285</v>
+        <v>179.8635156605835</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.0593760682564</v>
+        <v>246.0971971449835</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.3975689488196</v>
+        <v>222.6100260491233</v>
       </c>
       <c r="AD11" t="n">
-        <v>135253.1860246285</v>
+        <v>179863.5156605834</v>
       </c>
       <c r="AE11" t="n">
-        <v>185059.3760682564</v>
+        <v>246097.1971449835</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.634685177964847e-06</v>
+        <v>5.132387828480465e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>167397.5689488196</v>
+        <v>222610.0260491233</v>
       </c>
     </row>
     <row r="12">
@@ -11952,28 +11952,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.8931335696104</v>
+        <v>168.7179426456889</v>
       </c>
       <c r="AB12" t="n">
-        <v>181.8302481811362</v>
+        <v>230.847332438034</v>
       </c>
       <c r="AC12" t="n">
-        <v>164.4766244951356</v>
+        <v>208.8155870264806</v>
       </c>
       <c r="AD12" t="n">
-        <v>132893.1335696104</v>
+        <v>168717.9426456889</v>
       </c>
       <c r="AE12" t="n">
-        <v>181830.2481811362</v>
+        <v>230847.332438034</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.684510335035095e-06</v>
+        <v>5.202743861308225e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH12" t="n">
-        <v>164476.6244951356</v>
+        <v>208815.5870264806</v>
       </c>
     </row>
     <row r="13">
@@ -12058,28 +12058,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>131.2585884879977</v>
+        <v>167.0833975640763</v>
       </c>
       <c r="AB13" t="n">
-        <v>179.5937914894352</v>
+        <v>228.6108757463331</v>
       </c>
       <c r="AC13" t="n">
-        <v>162.4536120912032</v>
+        <v>206.7925746225482</v>
       </c>
       <c r="AD13" t="n">
-        <v>131258.5884879977</v>
+        <v>167083.3975640762</v>
       </c>
       <c r="AE13" t="n">
-        <v>179593.7914894352</v>
+        <v>228610.875746333</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.71452548989669e-06</v>
+        <v>5.245127013614104e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>162453.6120912032</v>
+        <v>206792.5746225482</v>
       </c>
     </row>
     <row r="14">
@@ -12164,28 +12164,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>130.3387364544231</v>
+        <v>166.1635455305016</v>
       </c>
       <c r="AB14" t="n">
-        <v>178.3352093560914</v>
+        <v>227.3522936129893</v>
       </c>
       <c r="AC14" t="n">
-        <v>161.3151472702342</v>
+        <v>205.6541098015792</v>
       </c>
       <c r="AD14" t="n">
-        <v>130338.7364544231</v>
+        <v>166163.5455305016</v>
       </c>
       <c r="AE14" t="n">
-        <v>178335.2093560914</v>
+        <v>227352.2936129892</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.736736704494269e-06</v>
+        <v>5.276490546320454e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>161315.1472702342</v>
+        <v>205654.1098015792</v>
       </c>
     </row>
     <row r="15">
@@ -12270,28 +12270,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.2672722074521</v>
+        <v>166.0920812835306</v>
       </c>
       <c r="AB15" t="n">
-        <v>178.2374288206056</v>
+        <v>227.2545130775034</v>
       </c>
       <c r="AC15" t="n">
-        <v>161.2266987718193</v>
+        <v>205.5656613031643</v>
       </c>
       <c r="AD15" t="n">
-        <v>130267.2722074521</v>
+        <v>166092.0812835306</v>
       </c>
       <c r="AE15" t="n">
-        <v>178237.4288206056</v>
+        <v>227254.5130775034</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.738037361204939e-06</v>
+        <v>5.278327149587043e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.743055555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>161226.6987718193</v>
+        <v>205565.6613031643</v>
       </c>
     </row>
   </sheetData>
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5740342902833</v>
+        <v>201.6611520652979</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.3362336254083</v>
+        <v>275.9216849177475</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4985299250904</v>
+        <v>249.5881065677957</v>
       </c>
       <c r="AD2" t="n">
-        <v>159574.0342902833</v>
+        <v>201661.1520652979</v>
       </c>
       <c r="AE2" t="n">
-        <v>218336.2336254083</v>
+        <v>275921.6849177476</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26346703192568e-06</v>
+        <v>4.777592966526749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>197498.5299250904</v>
+        <v>249588.1065677957</v>
       </c>
     </row>
     <row r="3">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.583732124368</v>
+        <v>178.585509044811</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.8798879414702</v>
+        <v>244.3485721116118</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.0443337239589</v>
+        <v>221.0282873347253</v>
       </c>
       <c r="AD3" t="n">
-        <v>136583.732124368</v>
+        <v>178585.509044811</v>
       </c>
       <c r="AE3" t="n">
-        <v>186879.8879414702</v>
+        <v>244348.5721116118</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.636059042729207e-06</v>
+        <v>5.32305365382182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>169044.3337239589</v>
+        <v>221028.2873347253</v>
       </c>
     </row>
     <row r="4">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.8373278755373</v>
+        <v>161.4217707495284</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.9126717841035</v>
+        <v>220.8643881653256</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.2192518805541</v>
+        <v>199.785400944006</v>
       </c>
       <c r="AD4" t="n">
-        <v>127837.3278755373</v>
+        <v>161421.7707495284</v>
       </c>
       <c r="AE4" t="n">
-        <v>174912.6717841035</v>
+        <v>220864.3881653256</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.89972031838239e-06</v>
+        <v>5.709043842716978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>158219.2518805541</v>
+        <v>199785.400944006</v>
       </c>
     </row>
     <row r="5">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.7460015829826</v>
+        <v>148.4156958029943</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.0005416020845</v>
+        <v>203.0689026359559</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.0166302632687</v>
+        <v>183.6882915774328</v>
       </c>
       <c r="AD5" t="n">
-        <v>114746.0015829826</v>
+        <v>148415.6958029943</v>
       </c>
       <c r="AE5" t="n">
-        <v>157000.5416020845</v>
+        <v>203068.9026359559</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.04673606367757e-06</v>
+        <v>5.924269363250729e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.77199074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>142016.6302632687</v>
+        <v>183688.2915774328</v>
       </c>
     </row>
     <row r="6">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.298034393342</v>
+        <v>147.9677286133536</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.3876131303008</v>
+        <v>202.4559741641723</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.4621988245813</v>
+        <v>183.1338601387455</v>
       </c>
       <c r="AD6" t="n">
-        <v>114298.034393342</v>
+        <v>147967.7286133537</v>
       </c>
       <c r="AE6" t="n">
-        <v>156387.6131303008</v>
+        <v>202455.9741641723</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.062545960898891e-06</v>
+        <v>5.947414458030966e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.737268518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>141462.1988245813</v>
+        <v>183133.8601387455</v>
       </c>
     </row>
   </sheetData>
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.8483003838198</v>
+        <v>300.4362178566453</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.1169788802924</v>
+        <v>411.0700875819528</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.7521303697275</v>
+        <v>371.8381353636219</v>
       </c>
       <c r="AD2" t="n">
-        <v>247848.3003838198</v>
+        <v>300436.2178566454</v>
       </c>
       <c r="AE2" t="n">
-        <v>339116.9788802924</v>
+        <v>411070.0875819528</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425647210778687e-06</v>
+        <v>3.463367260341044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.25694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>306752.1303697274</v>
+        <v>371838.1353636219</v>
       </c>
     </row>
     <row r="3">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.5237690904043</v>
+        <v>252.111597054675</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.9972232368178</v>
+        <v>344.9502094687285</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.9427514051851</v>
+        <v>312.0286456177957</v>
       </c>
       <c r="AD3" t="n">
-        <v>199523.7690904043</v>
+        <v>252111.597054675</v>
       </c>
       <c r="AE3" t="n">
-        <v>272997.2232368178</v>
+        <v>344950.2094687285</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.813450794578854e-06</v>
+        <v>4.017077721453506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>246942.7514051851</v>
+        <v>312028.6456177957</v>
       </c>
     </row>
     <row r="4">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.7874645645169</v>
+        <v>218.6817719135522</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.1519200957792</v>
+        <v>299.2100478908695</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.3275964937352</v>
+        <v>270.6538608641931</v>
       </c>
       <c r="AD4" t="n">
-        <v>174787.4645645169</v>
+        <v>218681.7719135522</v>
       </c>
       <c r="AE4" t="n">
-        <v>239151.9200957792</v>
+        <v>299210.0478908696</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.090460692252271e-06</v>
+        <v>4.412595670695825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>216327.5964937352</v>
+        <v>270653.8608641931</v>
       </c>
     </row>
     <row r="5">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.9052023213836</v>
+        <v>200.0207377091629</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.6305729200905</v>
+        <v>273.6771976257111</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.0967077151599</v>
+        <v>247.5578299927527</v>
       </c>
       <c r="AD5" t="n">
-        <v>164905.2023213836</v>
+        <v>200020.7377091629</v>
       </c>
       <c r="AE5" t="n">
-        <v>225630.5729200905</v>
+        <v>273677.1976257111</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.297152297710797e-06</v>
+        <v>4.707712345598678e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.016203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>204096.7077151599</v>
+        <v>247557.8299927528</v>
       </c>
     </row>
     <row r="6">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.7732573396796</v>
+        <v>192.5822238341434</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.5581341049502</v>
+        <v>263.4994947778429</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.1308314816672</v>
+        <v>238.3514728201862</v>
       </c>
       <c r="AD6" t="n">
-        <v>148773.2573396796</v>
+        <v>192582.2238341434</v>
       </c>
       <c r="AE6" t="n">
-        <v>203558.1341049502</v>
+        <v>263499.4947778429</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.463779426962154e-06</v>
+        <v>4.945624496042231e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.582175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>184130.8314816672</v>
+        <v>238351.4728201862</v>
       </c>
     </row>
     <row r="7">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.8277013042915</v>
+        <v>178.8578958374992</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.7914061548019</v>
+        <v>244.7212637382249</v>
       </c>
       <c r="AC7" t="n">
-        <v>178.0099105499166</v>
+        <v>221.3654097955706</v>
       </c>
       <c r="AD7" t="n">
-        <v>143827.7013042915</v>
+        <v>178857.8958374992</v>
       </c>
       <c r="AE7" t="n">
-        <v>196791.4061548019</v>
+        <v>244721.2637382249</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.587773844352034e-06</v>
+        <v>5.122665165330374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH7" t="n">
-        <v>178009.9105499166</v>
+        <v>221365.4097955706</v>
       </c>
     </row>
     <row r="8">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.1974157144322</v>
+        <v>174.2276102476399</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.4560451369762</v>
+        <v>238.3859027203992</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.2791874958951</v>
+        <v>215.6346867415491</v>
       </c>
       <c r="AD8" t="n">
-        <v>139197.4157144322</v>
+        <v>174227.6102476399</v>
       </c>
       <c r="AE8" t="n">
-        <v>190456.0451369762</v>
+        <v>238385.9027203992</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.70390946063974e-06</v>
+        <v>5.288484947128424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.02662037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>172279.1874958951</v>
+        <v>215634.6867415491</v>
       </c>
     </row>
     <row r="9">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.0649558958617</v>
+        <v>161.1804017750899</v>
       </c>
       <c r="AB9" t="n">
-        <v>172.4876342499792</v>
+        <v>220.5341364860515</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.0256565251243</v>
+        <v>199.4866680214906</v>
       </c>
       <c r="AD9" t="n">
-        <v>126064.9558958617</v>
+        <v>161180.4017750899</v>
       </c>
       <c r="AE9" t="n">
-        <v>172487.6342499792</v>
+        <v>220534.1364860515</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.812391734677615e-06</v>
+        <v>5.443377197972069e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>156025.6565251243</v>
+        <v>199486.6680214906</v>
       </c>
     </row>
     <row r="10">
@@ -14136,28 +14136,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.1197837681111</v>
+        <v>159.2352296473394</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.8261639298545</v>
+        <v>217.8726661659267</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.6181931969544</v>
+        <v>197.0792046933207</v>
       </c>
       <c r="AD10" t="n">
-        <v>124119.7837681111</v>
+        <v>159235.2296473394</v>
       </c>
       <c r="AE10" t="n">
-        <v>169826.1639298545</v>
+        <v>217872.6661659268</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.859852729569185e-06</v>
+        <v>5.511142557716164e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.702546296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>153618.1931969544</v>
+        <v>197079.2046933207</v>
       </c>
     </row>
     <row r="11">
@@ -14242,28 +14242,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>124.0061555622518</v>
+        <v>159.1216014414801</v>
       </c>
       <c r="AB11" t="n">
-        <v>169.6706928056752</v>
+        <v>217.7171950417475</v>
       </c>
       <c r="AC11" t="n">
-        <v>153.4775600186617</v>
+        <v>196.9385715150279</v>
       </c>
       <c r="AD11" t="n">
-        <v>124006.1555622518</v>
+        <v>159121.6014414801</v>
       </c>
       <c r="AE11" t="n">
-        <v>169670.6928056752</v>
+        <v>217717.1950417475</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.86627331870495e-06</v>
+        <v>5.520309949456436e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH11" t="n">
-        <v>153477.5600186617</v>
+        <v>196938.5715150279</v>
       </c>
     </row>
   </sheetData>
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.7050160621235</v>
+        <v>141.6889196530619</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.4714869367486</v>
+        <v>193.8650307432038</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.0152608151138</v>
+        <v>175.3628243004068</v>
       </c>
       <c r="AD2" t="n">
-        <v>110705.0160621235</v>
+        <v>141688.9196530619</v>
       </c>
       <c r="AE2" t="n">
-        <v>151471.4869367486</v>
+        <v>193865.0307432038</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.152552277203129e-06</v>
+        <v>6.424510934465821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.449074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>137015.2608151138</v>
+        <v>175362.8243004068</v>
       </c>
     </row>
   </sheetData>
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.2632281110703</v>
+        <v>146.2638388120276</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.3399896393519</v>
+        <v>200.1246369676863</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.4191204527686</v>
+        <v>181.0250224922392</v>
       </c>
       <c r="AD2" t="n">
-        <v>114263.2281110703</v>
+        <v>146263.8388120276</v>
       </c>
       <c r="AE2" t="n">
-        <v>156339.9896393519</v>
+        <v>200124.6369676863</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.188073549080042e-06</v>
+        <v>6.329410294105381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.015046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>141419.1204527686</v>
+        <v>181025.0224922392</v>
       </c>
     </row>
     <row r="3">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.4114227348398</v>
+        <v>146.4120334357972</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.5427560614787</v>
+        <v>200.3274033898131</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.6025351321521</v>
+        <v>181.2084371716227</v>
       </c>
       <c r="AD3" t="n">
-        <v>114411.4227348398</v>
+        <v>146412.0334357972</v>
       </c>
       <c r="AE3" t="n">
-        <v>156542.7560614787</v>
+        <v>200327.4033898131</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184883718508955e-06</v>
+        <v>6.324589522402953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>141602.5351321521</v>
+        <v>181208.4371716227</v>
       </c>
     </row>
   </sheetData>
@@ -15239,28 +15239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.5509430471237</v>
+        <v>406.4499721014621</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.7473596230206</v>
+        <v>556.1227831364623</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.0605940730529</v>
+        <v>503.047205237146</v>
       </c>
       <c r="AD2" t="n">
-        <v>334550.9430471237</v>
+        <v>406449.9721014621</v>
       </c>
       <c r="AE2" t="n">
-        <v>457747.3596230206</v>
+        <v>556122.7831364623</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.945020371276479e-06</v>
+        <v>2.739578954371426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>414060.5940730529</v>
+        <v>503047.205237146</v>
       </c>
     </row>
     <row r="3">
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.5547267756613</v>
+        <v>315.4577528613233</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.8707161546259</v>
+        <v>431.6232144787062</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.7160372795323</v>
+        <v>390.4297006758439</v>
       </c>
       <c r="AD3" t="n">
-        <v>261554.7267756613</v>
+        <v>315457.7528613233</v>
       </c>
       <c r="AE3" t="n">
-        <v>357870.7161546259</v>
+        <v>431623.2144787062</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.34625540185422e-06</v>
+        <v>3.304722158915839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26273148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>323716.0372795323</v>
+        <v>390429.7006758439</v>
       </c>
     </row>
     <row r="4">
@@ -15451,28 +15451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.3392271305041</v>
+        <v>271.2421637076176</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.3731188898084</v>
+        <v>371.125494744483</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.9922457888464</v>
+        <v>335.705798403972</v>
       </c>
       <c r="AD4" t="n">
-        <v>217339.2271305041</v>
+        <v>271242.1637076176</v>
       </c>
       <c r="AE4" t="n">
-        <v>297373.1188898084</v>
+        <v>371125.494744483</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.636019684159928e-06</v>
+        <v>3.712857796596735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.91435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>268992.2457888465</v>
+        <v>335705.7984039721</v>
       </c>
     </row>
     <row r="5">
@@ -15557,28 +15557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.6519549840453</v>
+        <v>247.5569348310929</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.2773451823169</v>
+        <v>338.7183196769108</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.8143845193961</v>
+        <v>306.3915186411947</v>
       </c>
       <c r="AD5" t="n">
-        <v>202651.9549840453</v>
+        <v>247556.9348310929</v>
       </c>
       <c r="AE5" t="n">
-        <v>277277.345182317</v>
+        <v>338718.3196769108</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.847824049743716e-06</v>
+        <v>4.011186179664789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>250814.3845193961</v>
+        <v>306391.5186411947</v>
       </c>
     </row>
     <row r="6">
@@ -15663,28 +15663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.3507265627633</v>
+        <v>228.3409577558315</v>
       </c>
       <c r="AB6" t="n">
-        <v>250.8685529462308</v>
+        <v>312.4261720934738</v>
       </c>
       <c r="AC6" t="n">
-        <v>226.9260103493409</v>
+        <v>282.6086567218518</v>
       </c>
       <c r="AD6" t="n">
-        <v>183350.7265627633</v>
+        <v>228340.9577558315</v>
       </c>
       <c r="AE6" t="n">
-        <v>250868.5529462308</v>
+        <v>312426.1720934738</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.019654070273663e-06</v>
+        <v>4.253210332689013e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH6" t="n">
-        <v>226926.0103493409</v>
+        <v>282608.6567218518</v>
       </c>
     </row>
     <row r="7">
@@ -15769,28 +15769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>176.2446794114084</v>
+        <v>212.236953874414</v>
       </c>
       <c r="AB7" t="n">
-        <v>241.145745737077</v>
+        <v>290.3919635244198</v>
       </c>
       <c r="AC7" t="n">
-        <v>218.1311342141801</v>
+        <v>262.6773620934153</v>
       </c>
       <c r="AD7" t="n">
-        <v>176244.6794114084</v>
+        <v>212236.953874414</v>
       </c>
       <c r="AE7" t="n">
-        <v>241145.745737077</v>
+        <v>290391.9635244198</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.156083924537023e-06</v>
+        <v>4.445373028261487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>218131.1342141801</v>
+        <v>262677.3620934153</v>
       </c>
     </row>
     <row r="8">
@@ -15875,28 +15875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>160.9571310854519</v>
+        <v>205.8620214239484</v>
       </c>
       <c r="AB8" t="n">
-        <v>220.2286476784812</v>
+        <v>281.6694997035266</v>
       </c>
       <c r="AC8" t="n">
-        <v>199.2103346369584</v>
+        <v>254.7873579775305</v>
       </c>
       <c r="AD8" t="n">
-        <v>160957.1310854519</v>
+        <v>205862.0214239484</v>
       </c>
       <c r="AE8" t="n">
-        <v>220228.6476784812</v>
+        <v>281669.4997035266</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.281277209170821e-06</v>
+        <v>4.621708912901243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.767361111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>199210.3346369584</v>
+        <v>254787.3579775305</v>
       </c>
     </row>
     <row r="9">
@@ -15981,28 +15981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.5634771959229</v>
+        <v>192.6410030049491</v>
       </c>
       <c r="AB9" t="n">
-        <v>214.2170565925012</v>
+        <v>263.5799190324933</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.7724813669014</v>
+        <v>238.4242214968488</v>
       </c>
       <c r="AD9" t="n">
-        <v>156563.4771959229</v>
+        <v>192641.0030049491</v>
       </c>
       <c r="AE9" t="n">
-        <v>214217.0565925012</v>
+        <v>263579.9190324933</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.374152926285966e-06</v>
+        <v>4.752525208575216e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.530092592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>193772.4813669014</v>
+        <v>238424.2214968489</v>
       </c>
     </row>
     <row r="10">
@@ -16087,28 +16087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>152.9122663261822</v>
+        <v>188.8191999346162</v>
       </c>
       <c r="AB10" t="n">
-        <v>209.2213088004694</v>
+        <v>258.3507594656146</v>
       </c>
       <c r="AC10" t="n">
-        <v>189.2535207325635</v>
+        <v>233.6941255798599</v>
       </c>
       <c r="AD10" t="n">
-        <v>152912.2663261822</v>
+        <v>188819.1999346162</v>
       </c>
       <c r="AE10" t="n">
-        <v>209221.3088004694</v>
+        <v>258350.7594656146</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.45191396566931e-06</v>
+        <v>4.862052342640577e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>189253.5207325635</v>
+        <v>233694.1255798599</v>
       </c>
     </row>
     <row r="11">
@@ -16193,28 +16193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>149.1460192515</v>
+        <v>185.052952859934</v>
       </c>
       <c r="AB11" t="n">
-        <v>204.0681633977975</v>
+        <v>253.1976140629427</v>
       </c>
       <c r="AC11" t="n">
-        <v>184.5921842946359</v>
+        <v>229.0327891419324</v>
       </c>
       <c r="AD11" t="n">
-        <v>149146.0192515</v>
+        <v>185052.952859934</v>
       </c>
       <c r="AE11" t="n">
-        <v>204068.1633977975</v>
+        <v>253197.6140629427</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.535691044544588e-06</v>
+        <v>4.98005312326726e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.136574074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>184592.1842946359</v>
+        <v>229032.7891419324</v>
       </c>
     </row>
     <row r="12">
@@ -16299,28 +16299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.2075868539164</v>
+        <v>171.1997718083709</v>
       </c>
       <c r="AB12" t="n">
-        <v>184.9969852711946</v>
+        <v>234.243080588989</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.3411326418633</v>
+        <v>211.887249739872</v>
       </c>
       <c r="AD12" t="n">
-        <v>135207.5868539163</v>
+        <v>171199.7718083709</v>
       </c>
       <c r="AE12" t="n">
-        <v>184996.9852711946</v>
+        <v>234243.080588989</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.643333404049025e-06</v>
+        <v>5.131668369591752e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.899305555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>167341.1326418633</v>
+        <v>211887.249739872</v>
       </c>
     </row>
     <row r="13">
@@ -16405,28 +16405,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>146.8927853151331</v>
+        <v>182.799718923567</v>
       </c>
       <c r="AB13" t="n">
-        <v>200.9851893203963</v>
+        <v>250.1146399855415</v>
       </c>
       <c r="AC13" t="n">
-        <v>181.8034449361996</v>
+        <v>226.2440497834961</v>
       </c>
       <c r="AD13" t="n">
-        <v>146892.7853151331</v>
+        <v>182799.718923567</v>
       </c>
       <c r="AE13" t="n">
-        <v>200985.1893203963</v>
+        <v>250114.6399855415</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.581731148425008e-06</v>
+        <v>5.044901030009283e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH13" t="n">
-        <v>181803.4449361996</v>
+        <v>226244.049783496</v>
       </c>
     </row>
     <row r="14">
@@ -16511,28 +16511,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>132.7392611907349</v>
+        <v>168.7314461451895</v>
       </c>
       <c r="AB14" t="n">
-        <v>181.6197132039886</v>
+        <v>230.865808521783</v>
       </c>
       <c r="AC14" t="n">
-        <v>164.2861826807193</v>
+        <v>208.8322997787279</v>
       </c>
       <c r="AD14" t="n">
-        <v>132739.2611907349</v>
+        <v>168731.4461451895</v>
       </c>
       <c r="AE14" t="n">
-        <v>181619.7132039886</v>
+        <v>230865.808521783</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.690666210630191e-06</v>
+        <v>5.198337059892407e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>164286.1826807193</v>
+        <v>208832.2997787279</v>
       </c>
     </row>
     <row r="15">
@@ -16617,28 +16617,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>132.6125346358984</v>
+        <v>168.6047195903529</v>
       </c>
       <c r="AB15" t="n">
-        <v>181.4463203408804</v>
+        <v>230.6924156586748</v>
       </c>
       <c r="AC15" t="n">
-        <v>164.1293381891076</v>
+        <v>208.6754552871163</v>
       </c>
       <c r="AD15" t="n">
-        <v>132612.5346358984</v>
+        <v>168604.7195903529</v>
       </c>
       <c r="AE15" t="n">
-        <v>181446.3203408804</v>
+        <v>230692.4156586748</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.683009433095003e-06</v>
+        <v>5.18755241881436e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH15" t="n">
-        <v>164129.3381891076</v>
+        <v>208675.4552871163</v>
       </c>
     </row>
     <row r="16">
@@ -16723,28 +16723,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>131.9318956578807</v>
+        <v>167.9240806123352</v>
       </c>
       <c r="AB16" t="n">
-        <v>180.5150400634845</v>
+        <v>229.7611353812789</v>
       </c>
       <c r="AC16" t="n">
-        <v>163.2869379943261</v>
+        <v>207.8330550923347</v>
       </c>
       <c r="AD16" t="n">
-        <v>131931.8956578807</v>
+        <v>167924.0806123352</v>
       </c>
       <c r="AE16" t="n">
-        <v>180515.0400634845</v>
+        <v>229761.1353812789</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.707620503743822e-06</v>
+        <v>5.222217336565225e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>163286.9379943261</v>
+        <v>207833.0550923347</v>
       </c>
     </row>
   </sheetData>
@@ -17020,28 +17020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.9315241054755</v>
+        <v>147.1668601625907</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.9908699358064</v>
+        <v>201.3601906180164</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.7215658577734</v>
+        <v>182.1426566362927</v>
       </c>
       <c r="AD2" t="n">
-        <v>116931.5241054755</v>
+        <v>147166.8601625907</v>
       </c>
       <c r="AE2" t="n">
-        <v>159990.8699358064</v>
+        <v>201360.1906180164</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.005893402388828e-06</v>
+        <v>6.331266413067925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.097222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>144721.5658577734</v>
+        <v>182142.6566362927</v>
       </c>
     </row>
   </sheetData>
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.9251457450651</v>
+        <v>217.5995599505631</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.3943486259845</v>
+        <v>297.7293177392863</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.596712546668</v>
+        <v>269.3144495200586</v>
       </c>
       <c r="AD2" t="n">
-        <v>166925.1457450651</v>
+        <v>217599.5599505631</v>
       </c>
       <c r="AE2" t="n">
-        <v>228394.3486259845</v>
+        <v>297729.3177392863</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.126414689579346e-06</v>
+        <v>4.557957109379796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.965277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>206596.712546668</v>
+        <v>269314.4495200586</v>
       </c>
     </row>
     <row r="3">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.7370717713012</v>
+        <v>185.0226441789307</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.2991587125861</v>
+        <v>253.1561443884694</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.6600811092029</v>
+        <v>228.9952772749877</v>
       </c>
       <c r="AD3" t="n">
-        <v>142737.0717713012</v>
+        <v>185022.6441789307</v>
       </c>
       <c r="AE3" t="n">
-        <v>195299.1587125861</v>
+        <v>253156.1443884693</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.491298571151999e-06</v>
+        <v>5.089916317368272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.923611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>176660.0811092029</v>
+        <v>228995.2772749877</v>
       </c>
     </row>
     <row r="4">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.407885798485</v>
+        <v>167.2193650622253</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.5345548899477</v>
+        <v>228.7969124757631</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.1137131601591</v>
+        <v>206.9608562676257</v>
       </c>
       <c r="AD4" t="n">
-        <v>133407.885798485</v>
+        <v>167219.3650622253</v>
       </c>
       <c r="AE4" t="n">
-        <v>182534.5548899477</v>
+        <v>228796.9124757631</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.755929569813588e-06</v>
+        <v>5.475718221937161e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>165113.7131601591</v>
+        <v>206960.8562676257</v>
       </c>
     </row>
     <row r="5">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.3229944908258</v>
+        <v>152.2197251005866</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.8947411043827</v>
+        <v>208.2737433428474</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.4437342341213</v>
+        <v>188.3963895923001</v>
       </c>
       <c r="AD5" t="n">
-        <v>118322.9944908258</v>
+        <v>152219.7251005866</v>
       </c>
       <c r="AE5" t="n">
-        <v>161894.7411043827</v>
+        <v>208273.7433428474</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.950082038007624e-06</v>
+        <v>5.758770443274987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.887731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>146443.7342341212</v>
+        <v>188396.3895923001</v>
       </c>
     </row>
     <row r="6">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.7532807559242</v>
+        <v>149.650011365685</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.3787454045232</v>
+        <v>204.7577476429879</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.2633002291243</v>
+        <v>185.2159555873031</v>
       </c>
       <c r="AD6" t="n">
-        <v>115753.2807559242</v>
+        <v>149650.011365685</v>
       </c>
       <c r="AE6" t="n">
-        <v>158378.7454045232</v>
+        <v>204757.7476429879</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.031059662013124e-06</v>
+        <v>5.876826611020991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>143263.3002291243</v>
+        <v>185215.9555873031</v>
       </c>
     </row>
     <row r="7">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.9014906170944</v>
+        <v>149.7982212268552</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.5815326751338</v>
+        <v>204.9605349135985</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.4467337672415</v>
+        <v>185.3993891254204</v>
       </c>
       <c r="AD7" t="n">
-        <v>115901.4906170944</v>
+        <v>149798.2212268552</v>
       </c>
       <c r="AE7" t="n">
-        <v>158581.5326751338</v>
+        <v>204960.5349135984</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.027775330188433e-06</v>
+        <v>5.872038428685548e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.737268518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>143446.7337672415</v>
+        <v>185399.3891254204</v>
       </c>
     </row>
   </sheetData>
@@ -18144,28 +18144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.5202335123587</v>
+        <v>153.6970434175772</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.4281240014441</v>
+        <v>210.2950754388372</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.2125276055675</v>
+        <v>190.2248085900068</v>
       </c>
       <c r="AD2" t="n">
-        <v>116520.2335123587</v>
+        <v>153697.0434175772</v>
       </c>
       <c r="AE2" t="n">
-        <v>159428.1240014441</v>
+        <v>210295.0754388372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.862437027232899e-06</v>
+        <v>6.188531395116114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.652777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>144212.5276055675</v>
+        <v>190224.8085900068</v>
       </c>
     </row>
   </sheetData>
@@ -18441,28 +18441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.8800631969124</v>
+        <v>321.5684654177825</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.5793675652388</v>
+        <v>439.9841609840654</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.6433717835884</v>
+        <v>397.9926901813938</v>
       </c>
       <c r="AD2" t="n">
-        <v>259880.0631969124</v>
+        <v>321568.4654177825</v>
       </c>
       <c r="AE2" t="n">
-        <v>355579.3675652388</v>
+        <v>439984.1609840654</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31945865006971e-06</v>
+        <v>3.302015159238852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.72569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>321643.3717835884</v>
+        <v>397992.6901813938</v>
       </c>
     </row>
     <row r="3">
@@ -18547,28 +18547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.7514339181845</v>
+        <v>260.6150156997083</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.2546772331355</v>
+        <v>356.5849620033802</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.1258097920337</v>
+        <v>322.5529936999142</v>
       </c>
       <c r="AD3" t="n">
-        <v>207751.4339181845</v>
+        <v>260615.0156997083</v>
       </c>
       <c r="AE3" t="n">
-        <v>284254.6772331354</v>
+        <v>356584.9620033802</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.707038303098733e-06</v>
+        <v>3.85377920542088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>257125.8097920337</v>
+        <v>322552.9936999143</v>
       </c>
     </row>
     <row r="4">
@@ -18653,28 +18653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.5001146026479</v>
+        <v>225.6242167993914</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.3364640191646</v>
+        <v>308.7090072627223</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.635580435664</v>
+        <v>279.2462528854724</v>
       </c>
       <c r="AD4" t="n">
-        <v>181500.1146026479</v>
+        <v>225624.2167993914</v>
       </c>
       <c r="AE4" t="n">
-        <v>248336.4640191646</v>
+        <v>308709.0072627222</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.982598356489464e-06</v>
+        <v>4.246070515959879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>224635.580435664</v>
+        <v>279246.2528854724</v>
       </c>
     </row>
     <row r="5">
@@ -18759,28 +18759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.430174649258</v>
+        <v>205.7295459152039</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.1900838036609</v>
+        <v>281.4882408680555</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.934749489845</v>
+        <v>254.6233982309183</v>
       </c>
       <c r="AD5" t="n">
-        <v>170430.174649258</v>
+        <v>205729.5459152039</v>
       </c>
       <c r="AE5" t="n">
-        <v>233190.0838036609</v>
+        <v>281488.2408680555</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.19689450315634e-06</v>
+        <v>4.55114563546642e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.236111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>210934.749489845</v>
+        <v>254623.3982309183</v>
       </c>
     </row>
     <row r="6">
@@ -18865,28 +18865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.2173671296509</v>
+        <v>197.2561284718228</v>
       </c>
       <c r="AB6" t="n">
-        <v>209.6387611798725</v>
+        <v>269.8945373012326</v>
       </c>
       <c r="AC6" t="n">
-        <v>189.6311320427746</v>
+        <v>244.1361814606442</v>
       </c>
       <c r="AD6" t="n">
-        <v>153217.3671296509</v>
+        <v>197256.1284718228</v>
       </c>
       <c r="AE6" t="n">
-        <v>209638.7611798726</v>
+        <v>269894.5373012326</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.379053879435182e-06</v>
+        <v>4.810470379993404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.738425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>189631.1320427746</v>
+        <v>244136.1814606442</v>
       </c>
     </row>
     <row r="7">
@@ -18971,28 +18971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.3107293390951</v>
+        <v>183.5247597504693</v>
       </c>
       <c r="AB7" t="n">
-        <v>202.9252828892556</v>
+        <v>251.1066728314524</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.558378697786</v>
+        <v>227.1414044069204</v>
       </c>
       <c r="AD7" t="n">
-        <v>148310.7293390951</v>
+        <v>183524.7597504694</v>
       </c>
       <c r="AE7" t="n">
-        <v>202925.2828892556</v>
+        <v>251106.6728314524</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.495001306565344e-06</v>
+        <v>4.975534828133933e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.449074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>183558.378697786</v>
+        <v>227141.4044069204</v>
       </c>
     </row>
     <row r="8">
@@ -19077,28 +19077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.549311361728</v>
+        <v>178.7633417731022</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.4105007536891</v>
+        <v>244.591890695886</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.6653582256818</v>
+        <v>221.2483839348162</v>
       </c>
       <c r="AD8" t="n">
-        <v>143549.311361728</v>
+        <v>178763.3417731022</v>
       </c>
       <c r="AE8" t="n">
-        <v>196410.5007536891</v>
+        <v>244591.890695886</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.60931638980278e-06</v>
+        <v>5.138275447704073e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>177665.3582256818</v>
+        <v>221248.3839348162</v>
       </c>
     </row>
     <row r="9">
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>130.4425503326466</v>
+        <v>174.3959708202468</v>
       </c>
       <c r="AB9" t="n">
-        <v>178.4772520842218</v>
+        <v>238.6162610833842</v>
       </c>
       <c r="AC9" t="n">
-        <v>161.4436336397501</v>
+        <v>215.8430600256808</v>
       </c>
       <c r="AD9" t="n">
-        <v>130442.5503326466</v>
+        <v>174395.9708202468</v>
       </c>
       <c r="AE9" t="n">
-        <v>178477.2520842217</v>
+        <v>238616.2610833842</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.711133840111536e-06</v>
+        <v>5.283224254782164e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.957175925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>161443.6336397501</v>
+        <v>215843.0600256808</v>
       </c>
     </row>
     <row r="10">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.806326346352</v>
+        <v>161.1056081037468</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.1337658904098</v>
+        <v>220.431800485256</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.7055608651348</v>
+        <v>199.3940988249815</v>
       </c>
       <c r="AD10" t="n">
-        <v>125806.326346352</v>
+        <v>161105.6081037468</v>
       </c>
       <c r="AE10" t="n">
-        <v>172133.7658904098</v>
+        <v>220431.800485256</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.824275676176076e-06</v>
+        <v>5.444294622567336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>155705.5608651348</v>
+        <v>199394.0988249815</v>
       </c>
     </row>
     <row r="11">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.3008313257443</v>
+        <v>160.6001130831391</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.4421253023482</v>
+        <v>219.7401598971944</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.0799294840739</v>
+        <v>198.7684674439206</v>
       </c>
       <c r="AD11" t="n">
-        <v>125300.8313257442</v>
+        <v>160600.1130831391</v>
       </c>
       <c r="AE11" t="n">
-        <v>171442.1253023482</v>
+        <v>219740.1598971944</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.837946556277652e-06</v>
+        <v>5.463756686844354e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH11" t="n">
-        <v>155079.9294840739</v>
+        <v>198768.4674439206</v>
       </c>
     </row>
     <row r="12">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.9740695781041</v>
+        <v>161.2733513354989</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.363279580402</v>
+        <v>220.6613141752482</v>
       </c>
       <c r="AC12" t="n">
-        <v>155.9131700906787</v>
+        <v>199.6017080505253</v>
       </c>
       <c r="AD12" t="n">
-        <v>125974.0695781041</v>
+        <v>161273.3513354989</v>
       </c>
       <c r="AE12" t="n">
-        <v>172363.279580402</v>
+        <v>220661.3141752481</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.818001354338412e-06</v>
+        <v>5.435362406499898e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH12" t="n">
-        <v>155913.1700906787</v>
+        <v>199601.7080505253</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.0010609145054</v>
+        <v>433.1425309241553</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.937577786017</v>
+        <v>592.6447197102563</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.7968686078632</v>
+        <v>536.0835394431967</v>
       </c>
       <c r="AD2" t="n">
-        <v>361001.0609145054</v>
+        <v>433142.5309241553</v>
       </c>
       <c r="AE2" t="n">
-        <v>493937.577786017</v>
+        <v>592644.7197102562</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.859310763579297e-06</v>
+        <v>2.61250531298552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>446796.8686078632</v>
+        <v>536083.5394431967</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.9869976733213</v>
+        <v>335.1747112527116</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.1446094361142</v>
+        <v>458.6008268006169</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.6276502197705</v>
+        <v>414.8326075410682</v>
       </c>
       <c r="AD3" t="n">
-        <v>271986.9976733213</v>
+        <v>335174.7112527116</v>
       </c>
       <c r="AE3" t="n">
-        <v>372144.6094361142</v>
+        <v>458600.8268006169</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261815464764566e-06</v>
+        <v>3.178062018699345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.64467592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>336627.6502197705</v>
+        <v>414832.6075410682</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.781130371825</v>
+        <v>288.8445848289173</v>
       </c>
       <c r="AB4" t="n">
-        <v>321.2379003870354</v>
+        <v>395.209903886658</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.579406034417</v>
+        <v>357.4916253402984</v>
       </c>
       <c r="AD4" t="n">
-        <v>234781.130371825</v>
+        <v>288844.5848289173</v>
       </c>
       <c r="AE4" t="n">
-        <v>321237.9003870354</v>
+        <v>395209.903886658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547334823648074e-06</v>
+        <v>3.579243390127238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.22685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>290579.406034417</v>
+        <v>357491.6253402984</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.1191794509565</v>
+        <v>254.2289669863366</v>
       </c>
       <c r="AB5" t="n">
-        <v>286.1260870117473</v>
+        <v>347.8472884209951</v>
       </c>
       <c r="AC5" t="n">
-        <v>258.8186148479156</v>
+        <v>314.6492314209347</v>
       </c>
       <c r="AD5" t="n">
-        <v>209119.1794509565</v>
+        <v>254228.9669863366</v>
       </c>
       <c r="AE5" t="n">
-        <v>286126.0870117473</v>
+        <v>347847.2884209951</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.765144035107244e-06</v>
+        <v>3.885285679184315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.34143518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>258818.6148479156</v>
+        <v>314649.2314209347</v>
       </c>
     </row>
     <row r="6">
@@ -20222,28 +20222,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.5940976476916</v>
+        <v>233.7891365290923</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.0427645858325</v>
+        <v>319.8806106477295</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.4155252991306</v>
+        <v>289.3516541228619</v>
       </c>
       <c r="AD6" t="n">
-        <v>188594.0976476916</v>
+        <v>233789.1365290923</v>
       </c>
       <c r="AE6" t="n">
-        <v>258042.7645858325</v>
+        <v>319880.6106477295</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.945836224146211e-06</v>
+        <v>4.139175084401621e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.710648148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>233415.5252991306</v>
+        <v>289351.6541228619</v>
       </c>
     </row>
     <row r="7">
@@ -20328,28 +20328,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.8102043493262</v>
+        <v>225.8346510301347</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.3924983738779</v>
+        <v>308.9969326609281</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.7817055466991</v>
+        <v>279.5066990877794</v>
       </c>
       <c r="AD7" t="n">
-        <v>180810.2043493262</v>
+        <v>225834.6510301347</v>
       </c>
       <c r="AE7" t="n">
-        <v>247392.498373878</v>
+        <v>308996.9326609281</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.084765585029289e-06</v>
+        <v>4.334383814725977e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>223781.7055466991</v>
+        <v>279506.6990877794</v>
       </c>
     </row>
     <row r="8">
@@ -20434,28 +20434,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.8136900814176</v>
+        <v>210.9233881082467</v>
       </c>
       <c r="AB8" t="n">
-        <v>226.8736059530196</v>
+        <v>288.594684892719</v>
       </c>
       <c r="AC8" t="n">
-        <v>205.2211074200346</v>
+        <v>261.0516132118271</v>
       </c>
       <c r="AD8" t="n">
-        <v>165813.6900814176</v>
+        <v>210923.3881082467</v>
       </c>
       <c r="AE8" t="n">
-        <v>226873.6059530196</v>
+        <v>288594.684892719</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.199576294859026e-06</v>
+        <v>4.495703587242335e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.940972222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>205221.1074200346</v>
+        <v>261051.6132118271</v>
       </c>
     </row>
     <row r="9">
@@ -20540,28 +20540,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.1443593749992</v>
+        <v>206.2540574018283</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.4848216841689</v>
+        <v>282.2059006238683</v>
       </c>
       <c r="AC9" t="n">
-        <v>199.4420597550859</v>
+        <v>255.2725655468784</v>
       </c>
       <c r="AD9" t="n">
-        <v>161144.3593749992</v>
+        <v>206254.0574018283</v>
       </c>
       <c r="AE9" t="n">
-        <v>220484.8216841689</v>
+        <v>282205.9006238683</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.293332608482362e-06</v>
+        <v>4.627439966262365e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.686342592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>199442.0597550859</v>
+        <v>255272.5655468784</v>
       </c>
     </row>
     <row r="10">
@@ -20646,28 +20646,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>156.9955607287401</v>
+        <v>193.0663404878401</v>
       </c>
       <c r="AB10" t="n">
-        <v>214.8082523442816</v>
+        <v>264.16188454115</v>
       </c>
       <c r="AC10" t="n">
-        <v>194.3072542258805</v>
+        <v>238.9506450341533</v>
       </c>
       <c r="AD10" t="n">
-        <v>156995.5607287401</v>
+        <v>193066.3404878401</v>
       </c>
       <c r="AE10" t="n">
-        <v>214808.2523442816</v>
+        <v>264161.8845411499</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.383876396862938e-06</v>
+        <v>4.754662447213706e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>194307.2542258805</v>
+        <v>238950.6450341533</v>
       </c>
     </row>
     <row r="11">
@@ -20752,28 +20752,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>153.0950218946263</v>
+        <v>189.1658016537262</v>
       </c>
       <c r="AB11" t="n">
-        <v>209.471363031821</v>
+        <v>258.8249952286894</v>
       </c>
       <c r="AC11" t="n">
-        <v>189.4797101390283</v>
+        <v>234.1231009473011</v>
       </c>
       <c r="AD11" t="n">
-        <v>153095.0218946263</v>
+        <v>189165.8016537263</v>
       </c>
       <c r="AE11" t="n">
-        <v>209471.363031821</v>
+        <v>258824.9952286894</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.466907818521982e-06</v>
+        <v>4.871329351142884e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>189479.7101390283</v>
+        <v>234123.1009473011</v>
       </c>
     </row>
     <row r="12">
@@ -20858,28 +20858,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>149.4664931485947</v>
+        <v>185.5372729076946</v>
       </c>
       <c r="AB12" t="n">
-        <v>204.5066499221126</v>
+        <v>253.860282118981</v>
       </c>
       <c r="AC12" t="n">
-        <v>184.9888222804903</v>
+        <v>229.6322130887631</v>
       </c>
       <c r="AD12" t="n">
-        <v>149466.4931485947</v>
+        <v>185537.2729076947</v>
       </c>
       <c r="AE12" t="n">
-        <v>204506.6499221126</v>
+        <v>253860.282118981</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.543118801973318e-06</v>
+        <v>4.978412902249308e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>184988.8222804903</v>
+        <v>229632.2130887631</v>
       </c>
     </row>
     <row r="13">
@@ -20964,28 +20964,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>137.7004165786582</v>
+        <v>182.7247737509157</v>
       </c>
       <c r="AB13" t="n">
-        <v>188.4077848764704</v>
+        <v>250.0120966939722</v>
       </c>
       <c r="AC13" t="n">
-        <v>170.4264103199</v>
+        <v>226.1512930797537</v>
       </c>
       <c r="AD13" t="n">
-        <v>137700.4165786582</v>
+        <v>182724.7737509157</v>
       </c>
       <c r="AE13" t="n">
-        <v>188407.7848764704</v>
+        <v>250012.0966939722</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.599214435058446e-06</v>
+        <v>5.057232506987176e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.945601851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>170426.4103199</v>
+        <v>226151.2930797537</v>
       </c>
     </row>
     <row r="14">
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>136.5487206661743</v>
+        <v>172.7047517712949</v>
       </c>
       <c r="AB14" t="n">
-        <v>186.8319837197731</v>
+        <v>236.3022605692907</v>
       </c>
       <c r="AC14" t="n">
-        <v>169.0010014139466</v>
+        <v>213.7499044729316</v>
       </c>
       <c r="AD14" t="n">
-        <v>136548.7206661743</v>
+        <v>172704.7517712949</v>
       </c>
       <c r="AE14" t="n">
-        <v>186831.9837197731</v>
+        <v>236302.2605692907</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.620565372056486e-06</v>
+        <v>5.087232567997536e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.899305555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>169001.0014139466</v>
+        <v>213749.9044729316</v>
       </c>
     </row>
     <row r="15">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>134.1560541988683</v>
+        <v>170.3120853039889</v>
       </c>
       <c r="AB15" t="n">
-        <v>183.5582319022119</v>
+        <v>233.0285087517295</v>
       </c>
       <c r="AC15" t="n">
-        <v>166.0396918751129</v>
+        <v>210.7885949340978</v>
       </c>
       <c r="AD15" t="n">
-        <v>134156.0541988683</v>
+        <v>170312.0853039889</v>
       </c>
       <c r="AE15" t="n">
-        <v>183558.2319022119</v>
+        <v>233028.5087517295</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.666825735552239e-06</v>
+        <v>5.15223270018665e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>166039.6918751129</v>
+        <v>210788.5949340978</v>
       </c>
     </row>
     <row r="16">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>134.2137206439836</v>
+        <v>170.3697517491042</v>
       </c>
       <c r="AB16" t="n">
-        <v>183.6371336764826</v>
+        <v>233.1074105260002</v>
       </c>
       <c r="AC16" t="n">
-        <v>166.1110633747865</v>
+        <v>210.8599664337715</v>
       </c>
       <c r="AD16" t="n">
-        <v>134213.7206439836</v>
+        <v>170369.7517491042</v>
       </c>
       <c r="AE16" t="n">
-        <v>183637.1336764826</v>
+        <v>233107.4105260002</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.661438577837455e-06</v>
+        <v>5.144663240348387e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH16" t="n">
-        <v>166111.0633747865</v>
+        <v>210859.9664337715</v>
       </c>
     </row>
     <row r="17">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>134.3168440531274</v>
+        <v>170.4728751582479</v>
       </c>
       <c r="AB17" t="n">
-        <v>183.7782316743568</v>
+        <v>233.2485085238744</v>
       </c>
       <c r="AC17" t="n">
-        <v>166.2386951777759</v>
+        <v>210.987598236761</v>
       </c>
       <c r="AD17" t="n">
-        <v>134316.8440531274</v>
+        <v>170472.8751582479</v>
       </c>
       <c r="AE17" t="n">
-        <v>183778.2316743568</v>
+        <v>233248.5085238744</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.660598378927811e-06</v>
+        <v>5.143482682391961e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH17" t="n">
-        <v>166238.6951777759</v>
+        <v>210987.598236761</v>
       </c>
     </row>
   </sheetData>
@@ -21685,28 +21685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.8472920806214</v>
+        <v>170.9280153359138</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.6627934828606</v>
+        <v>233.8712513943239</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.7069058242028</v>
+        <v>211.5509074016801</v>
       </c>
       <c r="AD2" t="n">
-        <v>129847.2920806214</v>
+        <v>170928.0153359137</v>
       </c>
       <c r="AE2" t="n">
-        <v>177662.7934828606</v>
+        <v>233871.2513943239</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.747946815789921e-06</v>
+        <v>5.565113332628732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>160706.9058242028</v>
+        <v>211550.9074016801</v>
       </c>
     </row>
     <row r="3">
@@ -21791,28 +21791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.3256099214692</v>
+        <v>144.2584612093603</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.3206108337737</v>
+        <v>197.3807908607025</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.7833455191599</v>
+        <v>178.5430452066928</v>
       </c>
       <c r="AD3" t="n">
-        <v>111325.6099214691</v>
+        <v>144258.4612093603</v>
       </c>
       <c r="AE3" t="n">
-        <v>152320.6108337737</v>
+        <v>197380.7908607025</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095503446700364e-06</v>
+        <v>6.081180431653343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.91087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>137783.3455191599</v>
+        <v>178543.0452066928</v>
       </c>
     </row>
     <row r="4">
@@ -21897,28 +21897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.3898379372984</v>
+        <v>143.3226892251896</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.0402463216857</v>
+        <v>196.1004263486144</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.6251771991023</v>
+        <v>177.3848768866352</v>
       </c>
       <c r="AD4" t="n">
-        <v>110389.8379372984</v>
+        <v>143322.6892251896</v>
       </c>
       <c r="AE4" t="n">
-        <v>151040.2463216857</v>
+        <v>196100.4263486144</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.127521870420896e-06</v>
+        <v>6.128722770297582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>136625.1771991023</v>
+        <v>177384.8768866352</v>
       </c>
     </row>
   </sheetData>
@@ -22194,28 +22194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.8521462777246</v>
+        <v>357.2461078410464</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.4297144958219</v>
+        <v>488.7998853340723</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.9269487615003</v>
+        <v>442.1495103127355</v>
       </c>
       <c r="AD2" t="n">
-        <v>294852.1462777245</v>
+        <v>357246.1078410464</v>
       </c>
       <c r="AE2" t="n">
-        <v>403429.7144958219</v>
+        <v>488799.8853340723</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.125587541959559e-06</v>
+        <v>3.009303486906885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>364926.9487615003</v>
+        <v>442149.5103127355</v>
       </c>
     </row>
     <row r="3">
@@ -22300,28 +22300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.5618884669896</v>
+        <v>287.0424269498399</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.5696798236838</v>
+        <v>392.7441119709098</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.0703981002689</v>
+        <v>355.2611651442285</v>
       </c>
       <c r="AD3" t="n">
-        <v>233561.8884669897</v>
+        <v>287042.4269498399</v>
       </c>
       <c r="AE3" t="n">
-        <v>319569.6798236838</v>
+        <v>392744.1119709098</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519714554867249e-06</v>
+        <v>3.567289347669834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>289070.3981002689</v>
+        <v>355261.1651442286</v>
       </c>
     </row>
     <row r="4">
@@ -22406,28 +22406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.6580635276263</v>
+        <v>247.1399275839779</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.2857031611344</v>
+        <v>338.1477519643469</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.8219448244457</v>
+        <v>305.875405110321</v>
       </c>
       <c r="AD4" t="n">
-        <v>202658.0635276263</v>
+        <v>247139.9275839779</v>
       </c>
       <c r="AE4" t="n">
-        <v>277285.7031611344</v>
+        <v>338147.7519643469</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812603935515727e-06</v>
+        <v>3.981947891279342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>250821.9448244457</v>
+        <v>305875.405110321</v>
       </c>
     </row>
     <row r="5">
@@ -22512,28 +22512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.1484653780954</v>
+        <v>225.7155807804676</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.8553220364632</v>
+        <v>308.834015492325</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.2003579685044</v>
+        <v>279.359330505092</v>
       </c>
       <c r="AD5" t="n">
-        <v>181148.4653780954</v>
+        <v>225715.5807804676</v>
       </c>
       <c r="AE5" t="n">
-        <v>247855.3220364632</v>
+        <v>308834.015492325</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.024644167776194e-06</v>
+        <v>4.282144141826481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>224200.3579685045</v>
+        <v>279359.330505092</v>
       </c>
     </row>
     <row r="6">
@@ -22618,28 +22618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.5879725698952</v>
+        <v>208.241754400344</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.1424781140009</v>
+        <v>284.9255553482387</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.6053714309185</v>
+        <v>257.7326602414151</v>
       </c>
       <c r="AD6" t="n">
-        <v>172587.9725698952</v>
+        <v>208241.754400344</v>
       </c>
       <c r="AE6" t="n">
-        <v>236142.4781140009</v>
+        <v>284925.5553482387</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.191074606487756e-06</v>
+        <v>4.517768264406926e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>213605.3714309185</v>
+        <v>257732.6602414151</v>
       </c>
     </row>
     <row r="7">
@@ -22724,28 +22724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.326569708456</v>
+        <v>201.8083442562566</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.2611534334142</v>
+        <v>276.1230797670783</v>
       </c>
       <c r="AC7" t="n">
-        <v>194.716931070717</v>
+        <v>249.7702805753658</v>
       </c>
       <c r="AD7" t="n">
-        <v>157326.569708456</v>
+        <v>201808.3442562566</v>
       </c>
       <c r="AE7" t="n">
-        <v>215261.1534334142</v>
+        <v>276123.0797670783</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.323272529069898e-06</v>
+        <v>4.704927655180141e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.767361111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>194716.9310707171</v>
+        <v>249770.2805753658</v>
       </c>
     </row>
     <row r="8">
@@ -22830,28 +22830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.373862709705</v>
+        <v>187.9423036855822</v>
       </c>
       <c r="AB8" t="n">
-        <v>208.4846412197144</v>
+        <v>257.1509513317546</v>
       </c>
       <c r="AC8" t="n">
-        <v>188.5871596717961</v>
+        <v>232.6088254503539</v>
       </c>
       <c r="AD8" t="n">
-        <v>152373.862709705</v>
+        <v>187942.3036855822</v>
       </c>
       <c r="AE8" t="n">
-        <v>208484.6412197144</v>
+        <v>257150.9513317546</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.433269658103402e-06</v>
+        <v>4.86065624194308e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.483796296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>188587.1596717961</v>
+        <v>232608.8254503539</v>
       </c>
     </row>
     <row r="9">
@@ -22936,28 +22936,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>147.4391684312095</v>
+        <v>183.0076094070866</v>
       </c>
       <c r="AB9" t="n">
-        <v>201.7327748045334</v>
+        <v>250.3990849165736</v>
       </c>
       <c r="AC9" t="n">
-        <v>182.4796819109737</v>
+        <v>226.5013476895315</v>
       </c>
       <c r="AD9" t="n">
-        <v>147439.1684312095</v>
+        <v>183007.6094070866</v>
       </c>
       <c r="AE9" t="n">
-        <v>201732.7748045334</v>
+        <v>250399.0849165736</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.547847903265991e-06</v>
+        <v>5.022870550168456e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>182479.6819109737</v>
+        <v>226501.3476895315</v>
       </c>
     </row>
     <row r="10">
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.0315286847773</v>
+        <v>179.5999696606544</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.0702917690117</v>
+        <v>245.7366018810519</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.2621797125247</v>
+        <v>222.2838454910825</v>
       </c>
       <c r="AD10" t="n">
-        <v>144031.5286847773</v>
+        <v>179599.9696606544</v>
       </c>
       <c r="AE10" t="n">
-        <v>197070.2917690117</v>
+        <v>245736.6018810519</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.628848077460456e-06</v>
+        <v>5.137546658224094e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.02662037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>178262.1797125247</v>
+        <v>222283.8454910825</v>
       </c>
     </row>
     <row r="11">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>130.2139341597533</v>
+        <v>165.867626481651</v>
       </c>
       <c r="AB11" t="n">
-        <v>178.1644493506355</v>
+        <v>226.9474041153249</v>
       </c>
       <c r="AC11" t="n">
-        <v>161.1606843600358</v>
+        <v>205.2878623893058</v>
       </c>
       <c r="AD11" t="n">
-        <v>130213.9341597532</v>
+        <v>165867.626481651</v>
       </c>
       <c r="AE11" t="n">
-        <v>178164.4493506355</v>
+        <v>226947.4041153249</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.738039735526209e-06</v>
+        <v>5.292134898356273e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>161160.6843600358</v>
+        <v>205287.8623893058</v>
       </c>
     </row>
     <row r="12">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.8648135514149</v>
+        <v>177.2612472446438</v>
       </c>
       <c r="AB12" t="n">
-        <v>181.7914994828501</v>
+        <v>242.5366586943166</v>
       </c>
       <c r="AC12" t="n">
-        <v>164.4415739182298</v>
+        <v>219.3893003909398</v>
       </c>
       <c r="AD12" t="n">
-        <v>132864.8135514149</v>
+        <v>177261.2472446438</v>
       </c>
       <c r="AE12" t="n">
-        <v>181791.4994828501</v>
+        <v>242536.6586943166</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.666805896815724e-06</v>
+        <v>5.19128549319858e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.945601851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>164441.5739182298</v>
+        <v>219389.3003909398</v>
       </c>
     </row>
     <row r="13">
@@ -23360,28 +23360,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>128.9246128055613</v>
+        <v>164.5783051274591</v>
       </c>
       <c r="AB13" t="n">
-        <v>176.4003429929873</v>
+        <v>225.1832977576767</v>
       </c>
       <c r="AC13" t="n">
-        <v>159.5649418372222</v>
+        <v>203.6921198664922</v>
       </c>
       <c r="AD13" t="n">
-        <v>128924.6128055613</v>
+        <v>164578.3051274591</v>
       </c>
       <c r="AE13" t="n">
-        <v>176400.3429929873</v>
+        <v>225183.2977576767</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.763160361332945e-06</v>
+        <v>5.32769945890305e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.743055555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>159564.9418372222</v>
+        <v>203692.1198664922</v>
       </c>
     </row>
     <row r="14">
@@ -23466,28 +23466,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>129.0870897392372</v>
+        <v>164.7407820611349</v>
       </c>
       <c r="AB14" t="n">
-        <v>176.6226511016189</v>
+        <v>225.4056058663083</v>
       </c>
       <c r="AC14" t="n">
-        <v>159.7660331719774</v>
+        <v>203.8932112012475</v>
       </c>
       <c r="AD14" t="n">
-        <v>129087.0897392372</v>
+        <v>164740.7820611349</v>
       </c>
       <c r="AE14" t="n">
-        <v>176622.6511016189</v>
+        <v>225405.6058663083</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.760290871010332e-06</v>
+        <v>5.323636974030972e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>159766.0331719774</v>
+        <v>203893.2112012475</v>
       </c>
     </row>
   </sheetData>
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.5134759244878</v>
+        <v>193.1354143321285</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.3074220625947</v>
+        <v>264.2563944222281</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.522292658794</v>
+        <v>239.0361350248268</v>
       </c>
       <c r="AD2" t="n">
-        <v>151513.4759244877</v>
+        <v>193135.4143321285</v>
       </c>
       <c r="AE2" t="n">
-        <v>207307.4220625947</v>
+        <v>264256.3944222282</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.430810901113111e-06</v>
+        <v>5.044810086900345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.253472222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>187522.292658794</v>
+        <v>239036.1350248269</v>
       </c>
     </row>
     <row r="3">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.5700349970462</v>
+        <v>163.918808137612</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.6516822262796</v>
+        <v>224.2809448812146</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.6014164138642</v>
+        <v>202.8758862820991</v>
       </c>
       <c r="AD3" t="n">
-        <v>130570.0349970462</v>
+        <v>163918.808137612</v>
       </c>
       <c r="AE3" t="n">
-        <v>178651.6822262796</v>
+        <v>224280.9448812146</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.789226817581668e-06</v>
+        <v>5.571840075676342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.373842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>161601.4164138642</v>
+        <v>202875.8862820991</v>
       </c>
     </row>
     <row r="4">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8599802655245</v>
+        <v>148.2940047521109</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.1564922639228</v>
+        <v>202.9023995715069</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.1576972128193</v>
+        <v>183.5376793317664</v>
       </c>
       <c r="AD4" t="n">
-        <v>114859.9802655245</v>
+        <v>148294.0047521109</v>
       </c>
       <c r="AE4" t="n">
-        <v>157156.4922639228</v>
+        <v>202902.3995715069</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.017494154129815e-06</v>
+        <v>5.907494063937352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.899305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>142157.6972128193</v>
+        <v>183537.6793317664</v>
       </c>
     </row>
     <row r="5">
@@ -24081,28 +24081,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.1027430101411</v>
+        <v>146.5367674967275</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.752162727272</v>
+        <v>200.4980700348562</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.9828335126481</v>
+        <v>181.3628156315951</v>
       </c>
       <c r="AD5" t="n">
-        <v>113102.7430101411</v>
+        <v>146536.7674967275</v>
       </c>
       <c r="AE5" t="n">
-        <v>154752.162727272</v>
+        <v>200498.0700348562</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.078592138972351e-06</v>
+        <v>5.997335136239795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.783564814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>139982.8335126481</v>
+        <v>181362.8156315951</v>
       </c>
     </row>
     <row r="6">
@@ -24187,28 +24187,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.1790472666087</v>
+        <v>146.613071753195</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.8565655772771</v>
+        <v>200.6024728848613</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.0772723011791</v>
+        <v>181.4572544201261</v>
       </c>
       <c r="AD6" t="n">
-        <v>113179.0472666087</v>
+        <v>146613.071753195</v>
       </c>
       <c r="AE6" t="n">
-        <v>154856.5655772771</v>
+        <v>200602.4728848613</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.078153374269712e-06</v>
+        <v>5.996689957982686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.783564814814814</v>
       </c>
       <c r="AH6" t="n">
-        <v>140077.272301179</v>
+        <v>181457.2544201261</v>
       </c>
     </row>
   </sheetData>
@@ -24484,28 +24484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.8697342290264</v>
+        <v>243.2763646244291</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.5246350672994</v>
+        <v>332.8614546747268</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.4696523521924</v>
+        <v>301.0936246146557</v>
       </c>
       <c r="AD2" t="n">
-        <v>191869.7342290264</v>
+        <v>243276.3646244291</v>
       </c>
       <c r="AE2" t="n">
-        <v>262524.6350672994</v>
+        <v>332861.4546747268</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.868140245421196e-06</v>
+        <v>4.149546452336062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.68287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>237469.6523521924</v>
+        <v>301093.6246146557</v>
       </c>
     </row>
     <row r="3">
@@ -24590,28 +24590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.1305082473807</v>
+        <v>205.8698920884338</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.202358194064</v>
+        <v>281.6802686939047</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.9002383945639</v>
+        <v>254.7970991905813</v>
       </c>
       <c r="AD3" t="n">
-        <v>163130.5082473807</v>
+        <v>205869.8920884338</v>
       </c>
       <c r="AE3" t="n">
-        <v>223202.358194064</v>
+        <v>281680.2686939047</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.251889458936732e-06</v>
+        <v>4.704744263904827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.421296296296298</v>
       </c>
       <c r="AH3" t="n">
-        <v>201900.2383945639</v>
+        <v>254797.0991905813</v>
       </c>
     </row>
     <row r="4">
@@ -24696,28 +24696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.6989421331337</v>
+        <v>186.5235773202074</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.6152321763701</v>
+        <v>255.20978732886</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.8505503687245</v>
+        <v>230.8529234154541</v>
       </c>
       <c r="AD4" t="n">
-        <v>143698.9421331337</v>
+        <v>186523.5773202074</v>
       </c>
       <c r="AE4" t="n">
-        <v>196615.2321763701</v>
+        <v>255209.78732886</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.513510180856139e-06</v>
+        <v>5.083249931551789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.721064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>177850.5503687245</v>
+        <v>230852.9234154541</v>
       </c>
     </row>
     <row r="5">
@@ -24802,28 +24802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.2286492763988</v>
+        <v>170.4713787636945</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.3940479237293</v>
+        <v>233.2464610908301</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.6048615956303</v>
+        <v>210.9857462078528</v>
       </c>
       <c r="AD5" t="n">
-        <v>136228.6492763988</v>
+        <v>170471.3787636945</v>
       </c>
       <c r="AE5" t="n">
-        <v>186394.0479237293</v>
+        <v>233246.4610908301</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.713881373180088e-06</v>
+        <v>5.373141463733853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.246527777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>168604.8615956303</v>
+        <v>210985.7462078528</v>
       </c>
     </row>
     <row r="6">
@@ -24908,28 +24908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.9720425692624</v>
+        <v>156.3000234025787</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.8875296699368</v>
+        <v>213.8565874896868</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.9600180664032</v>
+        <v>193.4464149293379</v>
       </c>
       <c r="AD6" t="n">
-        <v>121972.0425692624</v>
+        <v>156300.0234025787</v>
       </c>
       <c r="AE6" t="n">
-        <v>166887.5296699367</v>
+        <v>213856.5874896868</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.875872350329701e-06</v>
+        <v>5.607505555801783e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.905092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>150960.0180664032</v>
+        <v>193446.4149293379</v>
       </c>
     </row>
     <row r="7">
@@ -25014,28 +25014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.8426405743662</v>
+        <v>153.1706214076825</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.6057438010496</v>
+        <v>209.5748016207997</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.0868798313171</v>
+        <v>189.5732766942518</v>
       </c>
       <c r="AD7" t="n">
-        <v>118842.6405743662</v>
+        <v>153170.6214076825</v>
       </c>
       <c r="AE7" t="n">
-        <v>162605.7438010497</v>
+        <v>209574.8016207997</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.962955735104574e-06</v>
+        <v>5.733495402681437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>147086.8798313171</v>
+        <v>189573.2766942518</v>
       </c>
     </row>
     <row r="8">
@@ -25120,28 +25120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.5101646308447</v>
+        <v>152.838145464161</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.1508355473202</v>
+        <v>209.1198933670703</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.6753873828557</v>
+        <v>189.1617842457904</v>
       </c>
       <c r="AD8" t="n">
-        <v>118510.1646308447</v>
+        <v>152838.1454641609</v>
       </c>
       <c r="AE8" t="n">
-        <v>162150.8355473203</v>
+        <v>209119.8933670703</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.975978539149935e-06</v>
+        <v>5.752336437533957e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.702546296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>146675.3873828558</v>
+        <v>189161.7842457904</v>
       </c>
     </row>
   </sheetData>
@@ -25417,28 +25417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.1132784720855</v>
+        <v>149.4112640588602</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.2395542786389</v>
+        <v>204.4310830450026</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.9465161159567</v>
+        <v>184.9204674000728</v>
       </c>
       <c r="AD2" t="n">
-        <v>117113.2784720855</v>
+        <v>149411.2640588603</v>
       </c>
       <c r="AE2" t="n">
-        <v>160239.5542786389</v>
+        <v>204431.0830450026</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118247720557725e-06</v>
+        <v>6.18430923874547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.049768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>144946.5161159567</v>
+        <v>184920.4674000728</v>
       </c>
     </row>
     <row r="3">
@@ -25523,28 +25523,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.7158595659344</v>
+        <v>148.0242240227853</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.3815911463873</v>
+        <v>202.5332736757581</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.3156989387784</v>
+        <v>183.2037822934362</v>
       </c>
       <c r="AD3" t="n">
-        <v>107715.8595659344</v>
+        <v>148024.2240227853</v>
       </c>
       <c r="AE3" t="n">
-        <v>147381.5911463872</v>
+        <v>202533.2736757581</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.168302631106864e-06</v>
+        <v>6.259475927774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>133315.6989387784</v>
+        <v>183203.7822934362</v>
       </c>
     </row>
   </sheetData>
@@ -25820,28 +25820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9510103473271</v>
+        <v>143.2985269696278</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1763112871516</v>
+        <v>196.0673664845913</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5573791222508</v>
+        <v>177.3549722096346</v>
       </c>
       <c r="AD2" t="n">
-        <v>111951.0103473271</v>
+        <v>143298.5269696278</v>
       </c>
       <c r="AE2" t="n">
-        <v>153176.3112871516</v>
+        <v>196067.3664845913</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.17280103207594e-06</v>
+        <v>6.400020016676788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>138557.3791222508</v>
+        <v>177354.9722096346</v>
       </c>
     </row>
   </sheetData>
@@ -44490,28 +44490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.2506480215523</v>
+        <v>343.1676096685861</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.8195445259738</v>
+        <v>469.5370630350077</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.0929072940369</v>
+        <v>424.7251047383527</v>
       </c>
       <c r="AD2" t="n">
-        <v>281250.6480215522</v>
+        <v>343167.6096685861</v>
       </c>
       <c r="AE2" t="n">
-        <v>384819.5445259737</v>
+        <v>469537.0630350077</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220821711902185e-06</v>
+        <v>3.152676789982607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.20601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>348092.9072940369</v>
+        <v>424725.1047383527</v>
       </c>
     </row>
     <row r="3">
@@ -44596,28 +44596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.6718728344063</v>
+        <v>269.0202150912644</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.4059682353798</v>
+        <v>368.0853266221337</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.0675740740722</v>
+        <v>332.9557796603171</v>
       </c>
       <c r="AD3" t="n">
-        <v>224671.8728344063</v>
+        <v>269020.2150912644</v>
       </c>
       <c r="AE3" t="n">
-        <v>307405.9682353798</v>
+        <v>368085.3266221337</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.615440788136965e-06</v>
+        <v>3.712877726357713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.20949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>278067.5740740722</v>
+        <v>332955.7796603171</v>
       </c>
     </row>
     <row r="4">
@@ -44702,28 +44702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.2977839933545</v>
+        <v>240.5607853956376</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.5832881066185</v>
+        <v>329.1458793709958</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.9500760488138</v>
+        <v>297.732658603069</v>
       </c>
       <c r="AD4" t="n">
-        <v>196297.7839933545</v>
+        <v>240560.7853956376</v>
       </c>
       <c r="AE4" t="n">
-        <v>268583.2881066185</v>
+        <v>329145.8793709958</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.897572146184636e-06</v>
+        <v>4.113391184721426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.12152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>242950.0760488138</v>
+        <v>297732.658603069</v>
       </c>
     </row>
     <row r="5">
@@ -44808,28 +44808,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.1252863184657</v>
+        <v>220.3029468661772</v>
       </c>
       <c r="AB5" t="n">
-        <v>240.9823868400614</v>
+        <v>301.4282109822411</v>
       </c>
       <c r="AC5" t="n">
-        <v>217.98336606102</v>
+        <v>272.6603255833363</v>
       </c>
       <c r="AD5" t="n">
-        <v>176125.2863184657</v>
+        <v>220302.9468661772</v>
       </c>
       <c r="AE5" t="n">
-        <v>240982.3868400614</v>
+        <v>301428.2109822411</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.100860761214675e-06</v>
+        <v>4.40197954588436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.456018518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>217983.3660610199</v>
+        <v>272660.3255833363</v>
       </c>
     </row>
     <row r="6">
@@ -44914,28 +44914,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.5560917939683</v>
+        <v>202.8190036877004</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.9434397934974</v>
+        <v>277.5059085883263</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.2386623816982</v>
+        <v>251.0211341547268</v>
       </c>
       <c r="AD6" t="n">
-        <v>158556.0917939683</v>
+        <v>202819.0036877004</v>
       </c>
       <c r="AE6" t="n">
-        <v>216943.4397934974</v>
+        <v>277505.9085883263</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.276331467557901e-06</v>
+        <v>4.651077625322855e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.952546296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>196238.6623816982</v>
+        <v>251021.1341547268</v>
       </c>
     </row>
     <row r="7">
@@ -45020,28 +45020,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.7284451988785</v>
+        <v>196.9913570926105</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.9697966244767</v>
+        <v>269.5322654193056</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.0260125256479</v>
+        <v>243.8084842986765</v>
       </c>
       <c r="AD7" t="n">
-        <v>152728.4451988785</v>
+        <v>196991.3570926105</v>
       </c>
       <c r="AE7" t="n">
-        <v>208969.7966244767</v>
+        <v>269532.2654193057</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.408428531212765e-06</v>
+        <v>4.838602515041641e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.605324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>189026.0125256479</v>
+        <v>243808.4842986765</v>
       </c>
     </row>
     <row r="8">
@@ -45126,28 +45126,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>148.013295422306</v>
+        <v>183.4066462749284</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.5183206824465</v>
+        <v>250.9450647634185</v>
       </c>
       <c r="AC8" t="n">
-        <v>183.1902563928196</v>
+        <v>226.9952199860813</v>
       </c>
       <c r="AD8" t="n">
-        <v>148013.295422306</v>
+        <v>183406.6462749284</v>
       </c>
       <c r="AE8" t="n">
-        <v>202518.3206824465</v>
+        <v>250945.0647634185</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.516609287217035e-06</v>
+        <v>4.992175832858904e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.33912037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>183190.2563928196</v>
+        <v>226995.2199860813</v>
       </c>
     </row>
     <row r="9">
@@ -45232,28 +45232,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.7324467080664</v>
+        <v>179.1257975606888</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.6610746139105</v>
+        <v>245.0878186948825</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.8920176683663</v>
+        <v>221.696981261628</v>
       </c>
       <c r="AD9" t="n">
-        <v>143732.4467080664</v>
+        <v>179125.7975606888</v>
       </c>
       <c r="AE9" t="n">
-        <v>196661.0746139105</v>
+        <v>245087.8186948825</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.617594882868796e-06</v>
+        <v>5.135534906587151e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>177892.0176683663</v>
+        <v>221696.981261628</v>
       </c>
     </row>
     <row r="10">
@@ -45338,28 +45338,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>130.2029529711044</v>
+        <v>165.6815551697473</v>
       </c>
       <c r="AB10" t="n">
-        <v>178.1494244038703</v>
+        <v>226.6928131374915</v>
       </c>
       <c r="AC10" t="n">
-        <v>161.1470933731022</v>
+        <v>205.0575692170761</v>
       </c>
       <c r="AD10" t="n">
-        <v>130202.9529711044</v>
+        <v>165681.5551697473</v>
       </c>
       <c r="AE10" t="n">
-        <v>178149.4244038703</v>
+        <v>226692.8131374915</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.7324640977923e-06</v>
+        <v>5.298603155529417e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>161147.0933731022</v>
+        <v>205057.5692170761</v>
       </c>
     </row>
     <row r="11">
@@ -45444,28 +45444,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.806154596395</v>
+        <v>163.2847567950379</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.8700191283129</v>
+        <v>223.4134078619342</v>
       </c>
       <c r="AC11" t="n">
-        <v>158.1806699343688</v>
+        <v>202.0911457783427</v>
       </c>
       <c r="AD11" t="n">
-        <v>127806.154596395</v>
+        <v>163284.7567950379</v>
       </c>
       <c r="AE11" t="n">
-        <v>174870.0191283129</v>
+        <v>223413.4078619342</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.784198314129705e-06</v>
+        <v>5.372045009155378e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>158180.6699343688</v>
+        <v>202091.1457783427</v>
       </c>
     </row>
     <row r="12">
@@ -45550,28 +45550,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>127.3960774141178</v>
+        <v>162.8746796127607</v>
       </c>
       <c r="AB12" t="n">
-        <v>174.3089334361931</v>
+        <v>222.8523221698144</v>
       </c>
       <c r="AC12" t="n">
-        <v>157.673133473216</v>
+        <v>201.5836093171899</v>
       </c>
       <c r="AD12" t="n">
-        <v>127396.0774141178</v>
+        <v>162874.6796127607</v>
       </c>
       <c r="AE12" t="n">
-        <v>174308.9334361931</v>
+        <v>222852.3221698143</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.793369610071988e-06</v>
+        <v>5.385064573804054e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH12" t="n">
-        <v>157673.133473216</v>
+        <v>201583.6093171899</v>
       </c>
     </row>
     <row r="13">
@@ -45656,28 +45656,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.4286419213455</v>
+        <v>162.9072441199884</v>
       </c>
       <c r="AB13" t="n">
-        <v>174.3534896316267</v>
+        <v>222.8968783652479</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.7134372878924</v>
+        <v>201.6239131318663</v>
       </c>
       <c r="AD13" t="n">
-        <v>127428.6419213455</v>
+        <v>162907.2441199884</v>
       </c>
       <c r="AE13" t="n">
-        <v>174353.4896316267</v>
+        <v>222896.8783652479</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.789518679179095e-06</v>
+        <v>5.379597795277538e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.737268518518518</v>
       </c>
       <c r="AH13" t="n">
-        <v>157713.4372878924</v>
+        <v>201623.9131318663</v>
       </c>
     </row>
   </sheetData>
@@ -45953,28 +45953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.7947206149405</v>
+        <v>148.0506802108254</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.2259805465126</v>
+        <v>202.5694721993992</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.8886238066823</v>
+        <v>183.236526080786</v>
       </c>
       <c r="AD2" t="n">
-        <v>109794.7206149405</v>
+        <v>148050.6802108254</v>
       </c>
       <c r="AE2" t="n">
-        <v>150225.9805465126</v>
+        <v>202569.4721993992</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.102735347314174e-06</v>
+        <v>6.410443052223914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.703703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>135888.6238066823</v>
+        <v>183236.526080786</v>
       </c>
     </row>
   </sheetData>
@@ -46250,28 +46250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.9698760455295</v>
+        <v>168.6350721459455</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.9892976872422</v>
+        <v>230.7339453642967</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.6703191010058</v>
+        <v>208.713021455921</v>
       </c>
       <c r="AD2" t="n">
-        <v>124969.8760455295</v>
+        <v>168635.0721459455</v>
       </c>
       <c r="AE2" t="n">
-        <v>170989.2976872422</v>
+        <v>230733.9453642967</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582813018427622e-06</v>
+        <v>5.838824865475791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.70023148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>154670.3191010058</v>
+        <v>208713.021455921</v>
       </c>
     </row>
   </sheetData>
@@ -46547,28 +46547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.0830309740182</v>
+        <v>178.483668315552</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.5630506550719</v>
+        <v>244.2092291329439</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.6622963469996</v>
+        <v>220.9022430543723</v>
       </c>
       <c r="AD2" t="n">
-        <v>137083.0309740182</v>
+        <v>178483.668315552</v>
       </c>
       <c r="AE2" t="n">
-        <v>187563.0506550719</v>
+        <v>244209.2291329439</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.565432567908849e-06</v>
+        <v>5.267501636524985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.993055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>169662.2963469996</v>
+        <v>220902.2430543723</v>
       </c>
     </row>
     <row r="3">
@@ -46653,28 +46653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.2693201017391</v>
+        <v>158.3728513126028</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.3990102554873</v>
+        <v>216.6927220828937</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.0409292767729</v>
+        <v>196.01187281751</v>
       </c>
       <c r="AD3" t="n">
-        <v>125269.3201017391</v>
+        <v>158372.8513126028</v>
       </c>
       <c r="AE3" t="n">
-        <v>171399.0102554873</v>
+        <v>216692.7220828937</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.926097071678766e-06</v>
+        <v>5.800340451356015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.16550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>155040.9292767729</v>
+        <v>196011.87281751</v>
       </c>
     </row>
     <row r="4">
@@ -46759,28 +46759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.7931713126998</v>
+        <v>144.9819538695842</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.960348956608</v>
+        <v>198.3707054366637</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.3620279334292</v>
+        <v>179.4384837248785</v>
       </c>
       <c r="AD4" t="n">
-        <v>111793.1713126998</v>
+        <v>144981.9538695842</v>
       </c>
       <c r="AE4" t="n">
-        <v>152960.348956608</v>
+        <v>198370.7054366637</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.10313343384259e-06</v>
+        <v>6.061890574562893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>138362.0279334292</v>
+        <v>179438.4837248785</v>
       </c>
     </row>
     <row r="5">
@@ -46865,28 +46865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.4837566502032</v>
+        <v>144.6725392070875</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.5369941649688</v>
+        <v>197.9473506450245</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.9790775289217</v>
+        <v>179.055533320371</v>
       </c>
       <c r="AD5" t="n">
-        <v>111483.7566502032</v>
+        <v>144672.5392070875</v>
       </c>
       <c r="AE5" t="n">
-        <v>152536.9941649688</v>
+        <v>197947.3506450245</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.117867999654724e-06</v>
+        <v>6.083659139260337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.783564814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>137979.0775289217</v>
+        <v>179055.533320371</v>
       </c>
     </row>
   </sheetData>
@@ -47162,28 +47162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.7995483221657</v>
+        <v>225.3592111796777</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.1144065611777</v>
+        <v>308.3464148826074</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.2438386368259</v>
+        <v>278.918265813214</v>
       </c>
       <c r="AD2" t="n">
-        <v>182799.5483221657</v>
+        <v>225359.2111796777</v>
       </c>
       <c r="AE2" t="n">
-        <v>250114.4065611777</v>
+        <v>308346.4148826074</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.006654050699925e-06</v>
+        <v>4.366169853141297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>226243.8386368259</v>
+        <v>278918.2658132139</v>
       </c>
     </row>
     <row r="3">
@@ -47268,28 +47268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.1700361885447</v>
+        <v>191.2860570599218</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.0469773657</v>
+        <v>261.7260222145116</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.5231956663075</v>
+        <v>236.7472579892142</v>
       </c>
       <c r="AD3" t="n">
-        <v>157170.0361885446</v>
+        <v>191286.0570599218</v>
       </c>
       <c r="AE3" t="n">
-        <v>215046.9773657</v>
+        <v>261726.0222145116</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.368453918536737e-06</v>
+        <v>4.891564411072517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.172453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>194523.1956663075</v>
+        <v>236747.2579892142</v>
       </c>
     </row>
     <row r="4">
@@ -47374,28 +47374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.7489236109037</v>
+        <v>172.9501958283014</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.8423984548536</v>
+        <v>236.6380879563144</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.7241063918555</v>
+        <v>214.0536809654745</v>
       </c>
       <c r="AD4" t="n">
-        <v>138748.9236109037</v>
+        <v>172950.1958283014</v>
       </c>
       <c r="AE4" t="n">
-        <v>189842.3984548536</v>
+        <v>236638.0879563144</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.622589234377849e-06</v>
+        <v>5.260611842514022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.530092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>171724.1063918555</v>
+        <v>214053.6809654745</v>
       </c>
     </row>
     <row r="5">
@@ -47480,28 +47480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.4981118306404</v>
+        <v>165.5287918474459</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.9215178938628</v>
+        <v>226.4837956204768</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.7500607475592</v>
+        <v>204.8685000385272</v>
       </c>
       <c r="AD5" t="n">
-        <v>131498.1118306404</v>
+        <v>165528.7918474459</v>
       </c>
       <c r="AE5" t="n">
-        <v>179921.5178938628</v>
+        <v>226483.7956204768</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.830552097330375e-06</v>
+        <v>5.562609068495141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.06712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>162750.0607475592</v>
+        <v>204868.5000385272</v>
       </c>
     </row>
     <row r="6">
@@ -47586,28 +47586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.9963892543533</v>
+        <v>152.1123206171794</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.4478654110351</v>
+        <v>208.1267877902984</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.0395077297527</v>
+        <v>188.2634592714329</v>
       </c>
       <c r="AD6" t="n">
-        <v>117996.3892543533</v>
+        <v>152112.3206171794</v>
       </c>
       <c r="AE6" t="n">
-        <v>161447.8654110351</v>
+        <v>208126.7877902983</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.975154611636943e-06</v>
+        <v>5.772596359353162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.77199074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>146039.5077297527</v>
+        <v>188263.4592714329</v>
       </c>
     </row>
     <row r="7">
@@ -47692,28 +47692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.1460195365385</v>
+        <v>151.2619508993646</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.2843520474573</v>
+        <v>206.9632744267205</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.9870384485931</v>
+        <v>187.2109899902732</v>
       </c>
       <c r="AD7" t="n">
-        <v>117146.0195365385</v>
+        <v>151261.9508993646</v>
       </c>
       <c r="AE7" t="n">
-        <v>160284.3520474573</v>
+        <v>206963.2744267205</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.000082398340955e-06</v>
+        <v>5.808795718832933e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>144987.0384485931</v>
+        <v>187210.9899902733</v>
       </c>
     </row>
     <row r="8">
@@ -47798,28 +47798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.2526508501473</v>
+        <v>151.3685822129735</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.4302497149784</v>
+        <v>207.1091720942416</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.1190118474947</v>
+        <v>187.3429633891749</v>
       </c>
       <c r="AD8" t="n">
-        <v>117252.6508501473</v>
+        <v>151368.5822129734</v>
       </c>
       <c r="AE8" t="n">
-        <v>160430.2497149784</v>
+        <v>207109.1720942416</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.999868884107944e-06</v>
+        <v>5.808485660079358e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>145119.0118474947</v>
+        <v>187342.9633891749</v>
       </c>
     </row>
   </sheetData>
@@ -48095,28 +48095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.7147553411326</v>
+        <v>281.1049205529912</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.9376184404682</v>
+        <v>384.6201537744463</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.0712913473085</v>
+        <v>347.9125461159885</v>
       </c>
       <c r="AD2" t="n">
-        <v>228714.7553411326</v>
+        <v>281104.9205529912</v>
       </c>
       <c r="AE2" t="n">
-        <v>312937.6184404682</v>
+        <v>384620.1537744463</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.527111668971793e-06</v>
+        <v>3.619345383587669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.84606481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>283071.2913473086</v>
+        <v>347912.5461159885</v>
       </c>
     </row>
     <row r="3">
@@ -48201,28 +48201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.2069673336844</v>
+        <v>235.780186997543</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.9860522787669</v>
+        <v>322.6048537376097</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.8870325526007</v>
+        <v>291.815899275744</v>
       </c>
       <c r="AD3" t="n">
-        <v>192206.9673336844</v>
+        <v>235780.186997543</v>
       </c>
       <c r="AE3" t="n">
-        <v>262986.0522787669</v>
+        <v>322604.8537376097</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91448934665733e-06</v>
+        <v>4.174150154049796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>237887.0325526008</v>
+        <v>291815.899275744</v>
       </c>
     </row>
     <row r="4">
@@ -48307,28 +48307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.031105065289</v>
+        <v>212.518983874576</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.2758150762816</v>
+        <v>290.7778494129268</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.2031758831131</v>
+        <v>263.0264195743175</v>
       </c>
       <c r="AD4" t="n">
-        <v>169031.105065289</v>
+        <v>212518.983874576</v>
       </c>
       <c r="AE4" t="n">
-        <v>231275.8150762815</v>
+        <v>290777.8494129268</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.186657343759842e-06</v>
+        <v>4.563950888211289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.392361111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>209203.1758831131</v>
+        <v>263026.4195743175</v>
       </c>
     </row>
     <row r="5">
@@ -48413,28 +48413,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.7638624913077</v>
+        <v>194.3369926466152</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.2817678927076</v>
+        <v>265.9004468820021</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.594525483366</v>
+        <v>240.5232814252826</v>
       </c>
       <c r="AD5" t="n">
-        <v>150763.8624913077</v>
+        <v>194336.9926466153</v>
       </c>
       <c r="AE5" t="n">
-        <v>206281.7678927076</v>
+        <v>265900.4468820021</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.400315170795267e-06</v>
+        <v>4.869952985167563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>186594.525483366</v>
+        <v>240523.2814252827</v>
       </c>
     </row>
     <row r="6">
@@ -48519,28 +48519,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.5227072812888</v>
+        <v>179.3642327431716</v>
       </c>
       <c r="AB6" t="n">
-        <v>197.7423439940287</v>
+        <v>245.4140562305732</v>
       </c>
       <c r="AC6" t="n">
-        <v>178.8700922164175</v>
+        <v>221.9920831447897</v>
       </c>
       <c r="AD6" t="n">
-        <v>144522.7072812888</v>
+        <v>179364.2327431716</v>
       </c>
       <c r="AE6" t="n">
-        <v>197742.3439940287</v>
+        <v>245414.0562305732</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.551738042401246e-06</v>
+        <v>5.086821783664178e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.431712962962964</v>
       </c>
       <c r="AH6" t="n">
-        <v>178870.0922164175</v>
+        <v>221992.0831447897</v>
       </c>
     </row>
     <row r="7">
@@ -48625,28 +48625,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.8332861697153</v>
+        <v>173.6748116315981</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.9578270296331</v>
+        <v>237.6295392661775</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.8285186254631</v>
+        <v>214.9505095538353</v>
       </c>
       <c r="AD7" t="n">
-        <v>138833.2861697153</v>
+        <v>173674.8116315981</v>
       </c>
       <c r="AE7" t="n">
-        <v>189957.827029633</v>
+        <v>237629.5392661775</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.699901726815159e-06</v>
+        <v>5.299022753563154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH7" t="n">
-        <v>171828.5186254631</v>
+        <v>214950.5095538353</v>
       </c>
     </row>
     <row r="8">
@@ -48731,28 +48731,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.9889544288506</v>
+        <v>160.9157312367539</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.3836456898665</v>
+        <v>220.1720025790602</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.9315924872399</v>
+        <v>199.1590956663243</v>
       </c>
       <c r="AD8" t="n">
-        <v>125988.9544288506</v>
+        <v>160915.7312367539</v>
       </c>
       <c r="AE8" t="n">
-        <v>172383.6456898665</v>
+        <v>220172.0025790602</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.799694934648412e-06</v>
+        <v>5.441947219671787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.881944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>155931.5924872399</v>
+        <v>199159.0956663243</v>
       </c>
     </row>
     <row r="9">
@@ -48837,28 +48837,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.2378685174664</v>
+        <v>158.1646453253697</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.6194885765681</v>
+        <v>216.4078454657617</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.5266812458057</v>
+        <v>195.7541844248902</v>
       </c>
       <c r="AD9" t="n">
-        <v>123237.8685174664</v>
+        <v>158164.6453253698</v>
       </c>
       <c r="AE9" t="n">
-        <v>168619.4885765681</v>
+        <v>216407.8454657617</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.874190641895631e-06</v>
+        <v>5.548640444760658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.725694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>152526.6812458058</v>
+        <v>195754.1844248901</v>
       </c>
     </row>
     <row r="10">
@@ -48943,28 +48943,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.0602023265896</v>
+        <v>157.9869791344929</v>
       </c>
       <c r="AB10" t="n">
-        <v>168.3763978561313</v>
+        <v>216.164754745325</v>
       </c>
       <c r="AC10" t="n">
-        <v>152.3067907625475</v>
+        <v>195.5342939416318</v>
       </c>
       <c r="AD10" t="n">
-        <v>123060.2023265896</v>
+        <v>157986.9791344929</v>
       </c>
       <c r="AE10" t="n">
-        <v>168376.3978561313</v>
+        <v>216164.754745325</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.878950089858647e-06</v>
+        <v>5.555456956363558e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>152306.7907625475</v>
+        <v>195534.2939416318</v>
       </c>
     </row>
     <row r="11">
@@ -49049,28 +49049,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.2151146776077</v>
+        <v>158.1418914855111</v>
       </c>
       <c r="AB11" t="n">
-        <v>168.5883557690449</v>
+        <v>216.3767126582385</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.4985197097374</v>
+        <v>195.7260228888218</v>
       </c>
       <c r="AD11" t="n">
-        <v>123215.1146776077</v>
+        <v>158141.8914855111</v>
       </c>
       <c r="AE11" t="n">
-        <v>168588.3557690449</v>
+        <v>216376.7126582385</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.876673832137204e-06</v>
+        <v>5.552196885596953e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>152498.5197097374</v>
+        <v>195726.0228888218</v>
       </c>
     </row>
   </sheetData>
